--- a/capiq_data/in_process_data/IQ277746.xlsx
+++ b/capiq_data/in_process_data/IQ277746.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FAA44E-E2C7-4B37-8485-B33604A8A253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C555E3-921E-4AF6-948B-E1059221DBBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"c133d572-d4c2-4d62-8d82-3165e1da4461"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"371ac4b6-e734-4f15-9f3a-18ab33bcdcce"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40538</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>140.01400000000001</v>
+        <v>-180.09</v>
       </c>
       <c r="D2">
-        <v>1278.6969999999999</v>
+        <v>1162.7439999999999</v>
       </c>
       <c r="E2">
-        <v>961.25199999999995</v>
+        <v>685.97500000000002</v>
       </c>
       <c r="F2">
-        <v>647.09</v>
+        <v>180.39400000000001</v>
       </c>
       <c r="G2">
-        <v>2221.049</v>
+        <v>1580.213</v>
       </c>
       <c r="H2">
-        <v>4093.2260000000001</v>
+        <v>3828.4589999999998</v>
       </c>
       <c r="I2">
-        <v>132.517</v>
+        <v>191.749</v>
       </c>
       <c r="J2">
-        <v>1397.681</v>
+        <v>1167.838</v>
       </c>
       <c r="K2">
-        <v>14.568</v>
+        <v>226.292</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>718.80100000000004</v>
+        <v>1239.8119999999999</v>
       </c>
       <c r="O2">
-        <v>2477.806</v>
+        <v>2501.0529999999999</v>
       </c>
       <c r="P2">
-        <v>1412.249</v>
+        <v>1395.923</v>
       </c>
       <c r="Q2">
-        <v>229.893</v>
+        <v>-37.192</v>
       </c>
       <c r="R2">
-        <v>40538</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>5800</v>
+        <v>8900</v>
       </c>
       <c r="T2">
-        <v>1615.42</v>
+        <v>1327.4059999999999</v>
       </c>
       <c r="U2">
-        <v>727.79600000000005</v>
+        <v>127.11499999999999</v>
       </c>
       <c r="V2">
-        <v>362.21499999999997</v>
+        <v>233.02600000000001</v>
       </c>
       <c r="W2">
-        <v>-34.128</v>
+        <v>-10.340999999999999</v>
       </c>
       <c r="X2">
-        <v>-102.23099999999999</v>
+        <v>-319.25400000000002</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>140.01400000000001</v>
+        <v>-180.09</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40629</v>
+        <v>36982</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>17.196000000000002</v>
+        <v>-25.024000000000001</v>
       </c>
       <c r="D3">
-        <v>671.98599999999999</v>
+        <v>463.286</v>
       </c>
       <c r="E3">
-        <v>558.98</v>
+        <v>255.45</v>
       </c>
       <c r="F3">
-        <v>358.39699999999999</v>
+        <v>216.74600000000001</v>
       </c>
       <c r="G3">
-        <v>2060.7809999999999</v>
+        <v>1133.4359999999999</v>
       </c>
       <c r="H3">
-        <v>3940.3409999999999</v>
+        <v>3362.9580000000001</v>
       </c>
       <c r="I3">
-        <v>142.876</v>
+        <v>129.59100000000001</v>
       </c>
       <c r="J3">
-        <v>1396.6949999999999</v>
+        <v>1167.528</v>
       </c>
       <c r="K3">
-        <v>37.923000000000002</v>
+        <v>90.483000000000004</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-107.688</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="N3">
-        <v>626.53200000000004</v>
+        <v>805.26300000000003</v>
       </c>
       <c r="O3">
-        <v>2409.3530000000001</v>
+        <v>2089.5749999999998</v>
       </c>
       <c r="P3">
-        <v>1434.6289999999999</v>
+        <v>1259.7570000000001</v>
       </c>
       <c r="Q3">
-        <v>199.626</v>
+        <v>53.651000000000003</v>
       </c>
       <c r="R3">
-        <v>40629</v>
+        <v>36982</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1530.9880000000001</v>
+        <v>1273.383</v>
       </c>
       <c r="U3">
-        <v>927.42200000000003</v>
+        <v>180.76599999999999</v>
       </c>
       <c r="V3">
-        <v>276.49400000000003</v>
+        <v>193.77199999999999</v>
       </c>
       <c r="W3">
-        <v>-34.296999999999997</v>
+        <v>-5.173</v>
       </c>
       <c r="X3">
-        <v>-57.395000000000003</v>
+        <v>-137.38900000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>17.196000000000002</v>
+        <v>-25.024000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40720</v>
+        <v>37073</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>58.051000000000002</v>
+        <v>-18.331</v>
       </c>
       <c r="D4">
-        <v>908.45399999999995</v>
+        <v>510.971</v>
       </c>
       <c r="E4">
-        <v>837.97199999999998</v>
+        <v>399.40199999999999</v>
       </c>
       <c r="F4">
-        <v>441.12599999999998</v>
+        <v>267.00200000000001</v>
       </c>
       <c r="G4">
-        <v>2046.105</v>
+        <v>1178.2809999999999</v>
       </c>
       <c r="H4">
-        <v>3940.7449999999999</v>
+        <v>3333.7890000000002</v>
       </c>
       <c r="I4">
-        <v>172.09399999999999</v>
+        <v>148.703</v>
       </c>
       <c r="J4">
-        <v>1403.0309999999999</v>
+        <v>1167.0350000000001</v>
       </c>
       <c r="K4">
-        <v>12.43</v>
+        <v>174.982</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>706.52499999999998</v>
+        <v>791.82299999999998</v>
       </c>
       <c r="O4">
-        <v>2472.1260000000002</v>
+        <v>2075.8580000000002</v>
       </c>
       <c r="P4">
-        <v>1415.461</v>
+        <v>1342.0170000000001</v>
       </c>
       <c r="Q4">
-        <v>-342.64400000000001</v>
+        <v>-123.947</v>
       </c>
       <c r="R4">
-        <v>40720</v>
+        <v>37073</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1468.6189999999999</v>
+        <v>1257.931</v>
       </c>
       <c r="U4">
-        <v>584.77800000000002</v>
+        <v>56.819000000000003</v>
       </c>
       <c r="V4">
-        <v>-147.63900000000001</v>
+        <v>-179.84200000000001</v>
       </c>
       <c r="W4">
-        <v>-40.813000000000002</v>
+        <v>-5.1740000000000004</v>
       </c>
       <c r="X4">
-        <v>-163.60900000000001</v>
+        <v>79.132000000000005</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>58.051000000000002</v>
+        <v>-18.331</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40811</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>170.99</v>
+        <v>50.601999999999997</v>
       </c>
       <c r="D5">
-        <v>1375.8109999999999</v>
+        <v>893.35299999999995</v>
       </c>
       <c r="E5">
-        <v>1260.521</v>
+        <v>785.80700000000002</v>
       </c>
       <c r="F5">
-        <v>659.18600000000004</v>
+        <v>426.09300000000002</v>
       </c>
       <c r="G5">
-        <v>2210.3049999999998</v>
+        <v>1556.6690000000001</v>
       </c>
       <c r="H5">
-        <v>4084.7260000000001</v>
+        <v>3590.5859999999998</v>
       </c>
       <c r="I5">
-        <v>246.46100000000001</v>
+        <v>187.96799999999999</v>
       </c>
       <c r="J5">
-        <v>1405.0709999999999</v>
+        <v>1166.3599999999999</v>
       </c>
       <c r="K5">
-        <v>13.167999999999999</v>
+        <v>298.69799999999998</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>942.44299999999998</v>
+        <v>1048.799</v>
       </c>
       <c r="O5">
-        <v>2703.4839999999999</v>
+        <v>2305.4520000000002</v>
       </c>
       <c r="P5">
-        <v>1418.239</v>
+        <v>1468.402</v>
       </c>
       <c r="Q5">
-        <v>-397.81599999999997</v>
+        <v>-19.739000000000001</v>
       </c>
       <c r="R5">
-        <v>40811</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1381.242</v>
+        <v>1285.134</v>
       </c>
       <c r="U5">
-        <v>186.96199999999999</v>
+        <v>37.08</v>
       </c>
       <c r="V5">
-        <v>-127.809</v>
+        <v>-135.05000000000001</v>
       </c>
       <c r="W5">
-        <v>-40.22</v>
+        <v>-5.1760000000000002</v>
       </c>
       <c r="X5">
-        <v>-244.44900000000001</v>
+        <v>122.68</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>170.99</v>
+        <v>50.601999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>139.13</v>
+        <v>52.484999999999999</v>
       </c>
       <c r="D6">
-        <v>1329.338</v>
+        <v>988.72900000000004</v>
       </c>
       <c r="E6">
-        <v>1034.58</v>
+        <v>572.49900000000002</v>
       </c>
       <c r="F6">
-        <v>615.60199999999998</v>
+        <v>482.99299999999999</v>
       </c>
       <c r="G6">
-        <v>2253.692</v>
+        <v>1368.6179999999999</v>
       </c>
       <c r="H6">
-        <v>4130.7740000000003</v>
+        <v>3368.9789999999998</v>
       </c>
       <c r="I6">
-        <v>134.864</v>
+        <v>123.10899999999999</v>
       </c>
       <c r="J6">
-        <v>1400.8720000000001</v>
+        <v>1165.6489999999999</v>
       </c>
       <c r="K6">
-        <v>180.43</v>
+        <v>34.024000000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>942.34400000000005</v>
+        <v>758.59100000000001</v>
       </c>
       <c r="O6">
-        <v>2713.259</v>
+        <v>2016.115</v>
       </c>
       <c r="P6">
-        <v>1581.3019999999999</v>
+        <v>1201.9770000000001</v>
       </c>
       <c r="Q6">
-        <v>454.726</v>
+        <v>196.01499999999999</v>
       </c>
       <c r="R6">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="S6">
-        <v>5900</v>
+        <v>8000</v>
       </c>
       <c r="T6">
-        <v>1417.5150000000001</v>
+        <v>1352.864</v>
       </c>
       <c r="U6">
-        <v>641.68799999999999</v>
+        <v>233.095</v>
       </c>
       <c r="V6">
-        <v>395.02300000000002</v>
+        <v>493.59500000000003</v>
       </c>
       <c r="W6">
-        <v>-38.698</v>
+        <v>-5.1859999999999999</v>
       </c>
       <c r="X6">
-        <v>89.768000000000001</v>
+        <v>-267.084</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>139.13</v>
+        <v>52.484999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-2.5790000000000002</v>
+        <v>-262.79000000000002</v>
       </c>
       <c r="D7">
-        <v>648.85</v>
+        <v>452.267</v>
       </c>
       <c r="E7">
-        <v>456.58</v>
+        <v>287.37900000000002</v>
       </c>
       <c r="F7">
-        <v>339.00599999999997</v>
+        <v>234.39699999999999</v>
       </c>
       <c r="G7">
-        <v>2018.902</v>
+        <v>1198.4090000000001</v>
       </c>
       <c r="H7">
-        <v>3897.1370000000002</v>
+        <v>3134.5479999999998</v>
       </c>
       <c r="I7">
-        <v>129.518</v>
+        <v>93.546999999999997</v>
       </c>
       <c r="J7">
-        <v>1400.942</v>
+        <v>840.399</v>
       </c>
       <c r="K7">
-        <v>171.17699999999999</v>
+        <v>33.728000000000002</v>
       </c>
       <c r="L7">
-        <v>-10.137</v>
+        <v>-0.37</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>725.87699999999995</v>
+        <v>874.26300000000003</v>
       </c>
       <c r="O7">
-        <v>2499.7440000000001</v>
+        <v>1809.229</v>
       </c>
       <c r="P7">
-        <v>1572.1189999999999</v>
+        <v>1201.2940000000001</v>
       </c>
       <c r="Q7">
-        <v>242.136</v>
+        <v>122.017</v>
       </c>
       <c r="R7">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1397.393</v>
+        <v>1325.319</v>
       </c>
       <c r="U7">
-        <v>883.82399999999996</v>
+        <v>355.11200000000002</v>
       </c>
       <c r="V7">
-        <v>284.738</v>
+        <v>137.88</v>
       </c>
       <c r="W7">
-        <v>-38.593000000000004</v>
+        <v>-5.1890000000000001</v>
       </c>
       <c r="X7">
-        <v>-30.445</v>
+        <v>-4.5309999999999997</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>-2.5790000000000002</v>
+        <v>-262.79000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>43.427</v>
+        <v>-25.888000000000002</v>
       </c>
       <c r="D8">
-        <v>811.46699999999998</v>
+        <v>545.99</v>
       </c>
       <c r="E8">
-        <v>651.41</v>
+        <v>479.44299999999998</v>
       </c>
       <c r="F8">
-        <v>418.572</v>
+        <v>284.113</v>
       </c>
       <c r="G8">
-        <v>2145.826</v>
+        <v>1107.2919999999999</v>
       </c>
       <c r="H8">
-        <v>4014.721</v>
+        <v>2884.777</v>
       </c>
       <c r="I8">
-        <v>161.785</v>
+        <v>124.127</v>
       </c>
       <c r="J8">
-        <v>1399.557</v>
+        <v>846.36099999999999</v>
       </c>
       <c r="K8">
-        <v>220.60499999999999</v>
+        <v>17.065999999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>838.69299999999998</v>
+        <v>848.202</v>
       </c>
       <c r="O8">
-        <v>2615.2310000000002</v>
+        <v>1792.748</v>
       </c>
       <c r="P8">
-        <v>1620.162</v>
+        <v>1141.355</v>
       </c>
       <c r="Q8">
-        <v>-103.893</v>
+        <v>-298.05500000000001</v>
       </c>
       <c r="R8">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1399.49</v>
+        <v>1092.029</v>
       </c>
       <c r="U8">
-        <v>779.93100000000004</v>
+        <v>57.057000000000002</v>
       </c>
       <c r="V8">
-        <v>-83.956999999999994</v>
+        <v>-214.78299999999999</v>
       </c>
       <c r="W8">
-        <v>-46.723999999999997</v>
+        <v>-5.194</v>
       </c>
       <c r="X8">
-        <v>16.36</v>
+        <v>-70.158000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>43.427</v>
+        <v>-25.888000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>164.852</v>
+        <v>55.847999999999999</v>
       </c>
       <c r="D9">
-        <v>1345.1369999999999</v>
+        <v>820.53200000000004</v>
       </c>
       <c r="E9">
-        <v>1195.5170000000001</v>
+        <v>799.12199999999996</v>
       </c>
       <c r="F9">
-        <v>656.60299999999995</v>
+        <v>392.404</v>
       </c>
       <c r="G9">
-        <v>2618.98</v>
+        <v>1415.7180000000001</v>
       </c>
       <c r="H9">
-        <v>4446.2870000000003</v>
+        <v>3124.1979999999999</v>
       </c>
       <c r="I9">
-        <v>237.4</v>
+        <v>180.197</v>
       </c>
       <c r="J9">
-        <v>1398.9059999999999</v>
+        <v>856.25699999999995</v>
       </c>
       <c r="K9">
-        <v>264.745</v>
+        <v>63.392000000000003</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1126.6189999999999</v>
+        <v>1034.298</v>
       </c>
       <c r="O9">
-        <v>2919.3980000000001</v>
+        <v>1985.116</v>
       </c>
       <c r="P9">
-        <v>1663.6510000000001</v>
+        <v>1174.8969999999999</v>
       </c>
       <c r="Q9">
-        <v>-83.197999999999993</v>
+        <v>-13.207000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1526.8889999999999</v>
+        <v>1139.0820000000001</v>
       </c>
       <c r="U9">
-        <v>696.73299999999995</v>
+        <v>43.85</v>
       </c>
       <c r="V9">
-        <v>-57.164999999999999</v>
+        <v>-21.693999999999999</v>
       </c>
       <c r="W9">
-        <v>-46.914000000000001</v>
+        <v>-5.194</v>
       </c>
       <c r="X9">
-        <v>-0.66300000000000003</v>
+        <v>19.210999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>164.852</v>
+        <v>55.847999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>130.29900000000001</v>
+        <v>62.155999999999999</v>
       </c>
       <c r="D10">
-        <v>1283.529</v>
+        <v>997.44100000000003</v>
       </c>
       <c r="E10">
-        <v>1029.9590000000001</v>
+        <v>555.14400000000001</v>
       </c>
       <c r="F10">
-        <v>661.72</v>
+        <v>510.00200000000001</v>
       </c>
       <c r="G10">
-        <v>2508.2020000000002</v>
+        <v>1431.624</v>
       </c>
       <c r="H10">
-        <v>4325.3869999999997</v>
+        <v>3142.8809999999999</v>
       </c>
       <c r="I10">
-        <v>139.90600000000001</v>
+        <v>166.316</v>
       </c>
       <c r="J10">
-        <v>1396.421</v>
+        <v>857.274</v>
       </c>
       <c r="K10">
-        <v>224.36500000000001</v>
+        <v>21.050999999999998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>960.43499999999995</v>
+        <v>966.85</v>
       </c>
       <c r="O10">
-        <v>2818.0079999999998</v>
+        <v>1951.5150000000001</v>
       </c>
       <c r="P10">
-        <v>1620.7860000000001</v>
+        <v>1080.1659999999999</v>
       </c>
       <c r="Q10">
-        <v>152.96799999999999</v>
+        <v>451.52199999999999</v>
       </c>
       <c r="R10">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="S10">
-        <v>5500</v>
+        <v>7200</v>
       </c>
       <c r="T10">
-        <v>1507.3789999999999</v>
+        <v>1191.366</v>
       </c>
       <c r="U10">
-        <v>849.70100000000002</v>
+        <v>495.37200000000001</v>
       </c>
       <c r="V10">
-        <v>391.18</v>
+        <v>571.73599999999999</v>
       </c>
       <c r="W10">
-        <v>-93.233000000000004</v>
+        <v>-5.1950000000000003</v>
       </c>
       <c r="X10">
-        <v>-204.631</v>
+        <v>-103.85899999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>130.29900000000001</v>
+        <v>62.155999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-6.6710000000000003</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="D11">
-        <v>663.69399999999996</v>
+        <v>461.76799999999997</v>
       </c>
       <c r="E11">
-        <v>509.27600000000001</v>
+        <v>286.57600000000002</v>
       </c>
       <c r="F11">
-        <v>349.5</v>
+        <v>255.71100000000001</v>
       </c>
       <c r="G11">
-        <v>2250.3960000000002</v>
+        <v>1047.6980000000001</v>
       </c>
       <c r="H11">
-        <v>4060.645</v>
+        <v>2804.0059999999999</v>
       </c>
       <c r="I11">
-        <v>118.416</v>
+        <v>111.883</v>
       </c>
       <c r="J11">
-        <v>1394.3869999999999</v>
+        <v>856.93600000000004</v>
       </c>
       <c r="K11">
-        <v>161.96799999999999</v>
+        <v>18.013999999999999</v>
       </c>
       <c r="L11">
-        <v>-62.604999999999997</v>
+        <v>-2.8820000000000001</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-200.28800000000001</v>
       </c>
       <c r="N11">
-        <v>741.673</v>
+        <v>551.54200000000003</v>
       </c>
       <c r="O11">
-        <v>2597.5569999999998</v>
+        <v>1541.643</v>
       </c>
       <c r="P11">
-        <v>1556.355</v>
+        <v>876.07100000000003</v>
       </c>
       <c r="Q11">
-        <v>217.33799999999999</v>
+        <v>-184.846</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1463.088</v>
+        <v>1262.3630000000001</v>
       </c>
       <c r="U11">
-        <v>1067.039</v>
+        <v>310.52600000000001</v>
       </c>
       <c r="V11">
-        <v>297.45400000000001</v>
+        <v>36.506999999999998</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-5.1950000000000003</v>
       </c>
       <c r="X11">
-        <v>-59.354999999999997</v>
+        <v>-208.14099999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>-6.6710000000000003</v>
+        <v>1.1890000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>36.479999999999997</v>
+        <v>11.417</v>
       </c>
       <c r="D12">
-        <v>766.34199999999998</v>
+        <v>581.46900000000005</v>
       </c>
       <c r="E12">
-        <v>640.50300000000004</v>
+        <v>485.108</v>
       </c>
       <c r="F12">
-        <v>405.23399999999998</v>
+        <v>298.012</v>
       </c>
       <c r="G12">
-        <v>2366.2020000000002</v>
+        <v>1166.405</v>
       </c>
       <c r="H12">
-        <v>4178.299</v>
+        <v>2904.2269999999999</v>
       </c>
       <c r="I12">
-        <v>199.78399999999999</v>
+        <v>153.74100000000001</v>
       </c>
       <c r="J12">
-        <v>959.89499999999998</v>
+        <v>861.28</v>
       </c>
       <c r="K12">
-        <v>192.91800000000001</v>
+        <v>16.815000000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1296.722</v>
+        <v>595.79100000000005</v>
       </c>
       <c r="O12">
-        <v>2722.2730000000001</v>
+        <v>1594.365</v>
       </c>
       <c r="P12">
-        <v>1585.271</v>
+        <v>879.29600000000005</v>
       </c>
       <c r="Q12">
-        <v>-44.694000000000003</v>
+        <v>-137.94900000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1456.0260000000001</v>
+        <v>1309.8620000000001</v>
       </c>
       <c r="U12">
-        <v>1022.345</v>
+        <v>172.577</v>
       </c>
       <c r="V12">
-        <v>0.68200000000000005</v>
+        <v>-124.80500000000001</v>
       </c>
       <c r="W12">
-        <v>-52.125</v>
+        <v>-5.1970000000000001</v>
       </c>
       <c r="X12">
-        <v>-7.7839999999999998</v>
+        <v>1.8939999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>36.479999999999997</v>
+        <v>11.417</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>126.574</v>
+        <v>68.463999999999999</v>
       </c>
       <c r="D13">
-        <v>1370.348</v>
+        <v>971.07100000000003</v>
       </c>
       <c r="E13">
-        <v>1215.289</v>
+        <v>879.66899999999998</v>
       </c>
       <c r="F13">
-        <v>639.82799999999997</v>
+        <v>468.66699999999997</v>
       </c>
       <c r="G13">
-        <v>2597.2849999999999</v>
+        <v>1547.1410000000001</v>
       </c>
       <c r="H13">
-        <v>4590.1450000000004</v>
+        <v>3248.4940000000001</v>
       </c>
       <c r="I13">
-        <v>263.08600000000001</v>
+        <v>169.352</v>
       </c>
       <c r="J13">
-        <v>959.89499999999998</v>
+        <v>856.93399999999997</v>
       </c>
       <c r="K13">
-        <v>212.92599999999999</v>
+        <v>104.57599999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1648.8789999999999</v>
+        <v>973.70600000000002</v>
       </c>
       <c r="O13">
-        <v>3019.4459999999999</v>
+        <v>1977.1030000000001</v>
       </c>
       <c r="P13">
-        <v>1603.2449999999999</v>
+        <v>962.72900000000004</v>
       </c>
       <c r="Q13">
-        <v>-433.67700000000002</v>
+        <v>-17.22</v>
       </c>
       <c r="R13">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1570.6990000000001</v>
+        <v>1271.3910000000001</v>
       </c>
       <c r="U13">
-        <v>588.66800000000001</v>
+        <v>155.357</v>
       </c>
       <c r="V13">
-        <v>-250.81899999999999</v>
+        <v>-87.129000000000005</v>
       </c>
       <c r="W13">
-        <v>-52.039000000000001</v>
+        <v>-5.2149999999999999</v>
       </c>
       <c r="X13">
-        <v>-48.06</v>
+        <v>83.531000000000006</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>126.574</v>
+        <v>68.463999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>129.815</v>
+        <v>76.593999999999994</v>
       </c>
       <c r="D14">
-        <v>1281.7729999999999</v>
+        <v>1124.3489999999999</v>
       </c>
       <c r="E14">
-        <v>1093.6199999999999</v>
+        <v>607.55600000000004</v>
       </c>
       <c r="F14">
-        <v>638.23900000000003</v>
+        <v>598.28200000000004</v>
       </c>
       <c r="G14">
-        <v>2480.4569999999999</v>
+        <v>1509.2629999999999</v>
       </c>
       <c r="H14">
-        <v>4402.2669999999998</v>
+        <v>3163.3760000000002</v>
       </c>
       <c r="I14">
-        <v>198.79900000000001</v>
+        <v>158.96899999999999</v>
       </c>
       <c r="J14">
-        <v>959.89499999999998</v>
+        <v>686.87099999999998</v>
       </c>
       <c r="K14">
-        <v>8.3320000000000007</v>
+        <v>23.353999999999999</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1363.28</v>
+        <v>930.05499999999995</v>
       </c>
       <c r="O14">
-        <v>2674.4789999999998</v>
+        <v>1758.136</v>
       </c>
       <c r="P14">
-        <v>1396.617</v>
+        <v>711.55799999999999</v>
       </c>
       <c r="Q14">
-        <v>93.781000000000006</v>
+        <v>365.39</v>
       </c>
       <c r="R14">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="S14">
-        <v>5000</v>
+        <v>6900</v>
       </c>
       <c r="T14">
-        <v>1727.788</v>
+        <v>1405.24</v>
       </c>
       <c r="U14">
-        <v>682.44899999999996</v>
+        <v>520.74699999999996</v>
       </c>
       <c r="V14">
-        <v>353.815</v>
+        <v>629.58199999999999</v>
       </c>
       <c r="W14">
-        <v>-51.965000000000003</v>
+        <v>-5.2439999999999998</v>
       </c>
       <c r="X14">
-        <v>-225.81</v>
+        <v>-250.59100000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,125 +1927,125 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>129.815</v>
+        <v>76.593999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>32.087000000000003</v>
+        <v>6.532</v>
       </c>
       <c r="D15">
-        <v>679.45299999999997</v>
+        <v>474.24700000000001</v>
       </c>
       <c r="E15">
-        <v>552.471</v>
+        <v>206.20099999999999</v>
       </c>
       <c r="F15">
-        <v>366.66899999999998</v>
+        <v>254.88499999999999</v>
       </c>
       <c r="G15">
-        <v>2142.105</v>
+        <v>1268.5440000000001</v>
       </c>
       <c r="H15">
-        <v>4029.4369999999999</v>
+        <v>2905.9029999999998</v>
       </c>
       <c r="I15">
-        <v>169.173</v>
+        <v>100.32299999999999</v>
       </c>
       <c r="J15">
-        <v>959.89499999999998</v>
+        <v>686.19100000000003</v>
       </c>
       <c r="K15">
-        <v>12.858000000000001</v>
+        <v>15.835000000000001</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-7.2560000000000002</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-0.32400000000000001</v>
       </c>
       <c r="N15">
-        <v>1093.721</v>
+        <v>672.53800000000001</v>
       </c>
       <c r="O15">
-        <v>2390.835</v>
+        <v>1501.655</v>
       </c>
       <c r="P15">
-        <v>1420.6489999999999</v>
+        <v>703.34100000000001</v>
       </c>
       <c r="Q15">
-        <v>109.8</v>
+        <v>110.973</v>
       </c>
       <c r="R15">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1638.6020000000001</v>
+        <v>1404.248</v>
       </c>
       <c r="U15">
-        <v>792.24900000000002</v>
+        <v>631.72</v>
       </c>
       <c r="V15">
-        <v>242.041</v>
+        <v>134.072</v>
       </c>
       <c r="W15">
-        <v>-52.387999999999998</v>
+        <v>-5.2670000000000003</v>
       </c>
       <c r="X15">
-        <v>-103.387</v>
+        <v>-0.58799999999999997</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-9.5640000000000001</v>
       </c>
       <c r="AA15">
-        <v>32.087000000000003</v>
+        <v>6.532</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>33.475000000000001</v>
+        <v>18.838999999999999</v>
       </c>
       <c r="D16">
-        <v>829.26199999999994</v>
+        <v>516.43299999999999</v>
       </c>
       <c r="E16">
-        <v>738.899</v>
+        <v>307.01299999999998</v>
       </c>
       <c r="F16">
-        <v>431.68299999999999</v>
+        <v>275.06200000000001</v>
       </c>
       <c r="G16">
-        <v>2204.2049999999999</v>
+        <v>1288.7460000000001</v>
       </c>
       <c r="H16">
-        <v>4138.5950000000003</v>
+        <v>2877.1509999999998</v>
       </c>
       <c r="I16">
-        <v>207.52600000000001</v>
+        <v>125.696</v>
       </c>
       <c r="J16">
-        <v>1559.895</v>
+        <v>651.28099999999995</v>
       </c>
       <c r="K16">
-        <v>9.1880000000000006</v>
+        <v>43.014000000000003</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>724.69200000000001</v>
+        <v>663.375</v>
       </c>
       <c r="O16">
-        <v>2642.3530000000001</v>
+        <v>1460.0260000000001</v>
       </c>
       <c r="P16">
-        <v>1569.0830000000001</v>
+        <v>695.62599999999998</v>
       </c>
       <c r="Q16">
-        <v>-206.09800000000001</v>
+        <v>-151.57599999999999</v>
       </c>
       <c r="R16">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1496.242</v>
+        <v>1417.125</v>
       </c>
       <c r="U16">
-        <v>586.15099999999995</v>
+        <v>480.14400000000001</v>
       </c>
       <c r="V16">
-        <v>-132.77099999999999</v>
+        <v>-123.22199999999999</v>
       </c>
       <c r="W16">
-        <v>-55.709000000000003</v>
+        <v>-10.584</v>
       </c>
       <c r="X16">
-        <v>-50.76</v>
+        <v>-5.6890000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
       <c r="AA16">
-        <v>33.475000000000001</v>
+        <v>18.838999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41910</v>
+        <v>38256</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>180.45699999999999</v>
+        <v>88.686999999999998</v>
       </c>
       <c r="D17">
-        <v>1469.8989999999999</v>
+        <v>947.31200000000001</v>
       </c>
       <c r="E17">
-        <v>1314.0219999999999</v>
+        <v>697.43</v>
       </c>
       <c r="F17">
-        <v>748.40700000000004</v>
+        <v>458.767</v>
       </c>
       <c r="G17">
-        <v>2646.1889999999999</v>
+        <v>1578.0609999999999</v>
       </c>
       <c r="H17">
-        <v>4508.8019999999997</v>
+        <v>3122.2379999999998</v>
       </c>
       <c r="I17">
-        <v>284.02300000000002</v>
+        <v>188.83099999999999</v>
       </c>
       <c r="J17">
-        <v>1559.895</v>
+        <v>632.41099999999994</v>
       </c>
       <c r="K17">
-        <v>78.022999999999996</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1014.028</v>
+        <v>842.00800000000004</v>
       </c>
       <c r="O17">
-        <v>2966.2890000000002</v>
+        <v>1620.588</v>
       </c>
       <c r="P17">
-        <v>1637.9179999999999</v>
+        <v>650.12300000000005</v>
       </c>
       <c r="Q17">
-        <v>-133.96700000000001</v>
+        <v>-175.05500000000001</v>
       </c>
       <c r="R17">
-        <v>41910</v>
+        <v>38256</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1542.5129999999999</v>
+        <v>1501.65</v>
       </c>
       <c r="U17">
-        <v>452.18400000000003</v>
+        <v>305.089</v>
       </c>
       <c r="V17">
-        <v>-82.444000000000003</v>
+        <v>-104.589</v>
       </c>
       <c r="W17">
-        <v>-54.692</v>
+        <v>-10.616</v>
       </c>
       <c r="X17">
-        <v>-88.713999999999999</v>
+        <v>-56.128999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>64.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>180.45699999999999</v>
+        <v>88.686999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42001</v>
+        <v>38347</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>169.911</v>
+        <v>81.918999999999997</v>
       </c>
       <c r="D18">
-        <v>1298.5930000000001</v>
+        <v>1059.518</v>
       </c>
       <c r="E18">
-        <v>1094.673</v>
+        <v>578.70500000000004</v>
       </c>
       <c r="F18">
-        <v>679.673</v>
+        <v>533.94600000000003</v>
       </c>
       <c r="G18">
-        <v>2643.5050000000001</v>
+        <v>1718.222</v>
       </c>
       <c r="H18">
-        <v>4518.1000000000004</v>
+        <v>3240.66</v>
       </c>
       <c r="I18">
-        <v>212.54900000000001</v>
+        <v>167.58500000000001</v>
       </c>
       <c r="J18">
-        <v>1545.8530000000001</v>
+        <v>302.69799999999998</v>
       </c>
       <c r="K18">
-        <v>252.48099999999999</v>
+        <v>17.959</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,120 +2220,120 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1071.684</v>
+        <v>1148.6110000000001</v>
       </c>
       <c r="O18">
-        <v>3009.7060000000001</v>
+        <v>1600.9359999999999</v>
       </c>
       <c r="P18">
-        <v>1798.3340000000001</v>
+        <v>644.78099999999995</v>
       </c>
       <c r="Q18">
-        <v>440.983</v>
+        <v>419.91300000000001</v>
       </c>
       <c r="R18">
-        <v>42001</v>
+        <v>38347</v>
       </c>
       <c r="S18">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="T18">
-        <v>1508.394</v>
+        <v>1639.7239999999999</v>
       </c>
       <c r="U18">
-        <v>893.16700000000003</v>
+        <v>725.00199999999995</v>
       </c>
       <c r="V18">
-        <v>427.58499999999998</v>
+        <v>452.245</v>
       </c>
       <c r="W18">
-        <v>-54.066000000000003</v>
+        <v>-10.621</v>
       </c>
       <c r="X18">
-        <v>11.904999999999999</v>
+        <v>-13.417999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>9.8239999999999998</v>
       </c>
       <c r="AA18">
-        <v>169.911</v>
+        <v>81.918999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42092</v>
+        <v>38438</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>26.667000000000002</v>
+        <v>-3.7130000000000001</v>
       </c>
       <c r="D19">
-        <v>713.5</v>
+        <v>454.94400000000002</v>
       </c>
       <c r="E19">
-        <v>563.30100000000004</v>
+        <v>199.59399999999999</v>
       </c>
       <c r="F19">
-        <v>395.58</v>
+        <v>248.09700000000001</v>
       </c>
       <c r="G19">
-        <v>2405.308</v>
+        <v>1542.28</v>
       </c>
       <c r="H19">
-        <v>4260.8419999999996</v>
+        <v>3027.7429999999999</v>
       </c>
       <c r="I19">
-        <v>142.946</v>
+        <v>112.715</v>
       </c>
       <c r="J19">
-        <v>1559.895</v>
+        <v>266.24200000000002</v>
       </c>
       <c r="K19">
-        <v>231.91399999999999</v>
+        <v>16.158999999999999</v>
       </c>
       <c r="L19">
-        <v>-20.324999999999999</v>
+        <v>-1.1639999999999999</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.36</v>
       </c>
       <c r="N19">
-        <v>820.72699999999998</v>
+        <v>991.08600000000001</v>
       </c>
       <c r="O19">
-        <v>2773.1010000000001</v>
+        <v>1408.557</v>
       </c>
       <c r="P19">
-        <v>1791.809</v>
+        <v>639.02</v>
       </c>
       <c r="Q19">
-        <v>188.23</v>
+        <v>151.88900000000001</v>
       </c>
       <c r="R19">
-        <v>42092</v>
+        <v>38438</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1487.741</v>
+        <v>1619.1859999999999</v>
       </c>
       <c r="U19">
-        <v>1081.3969999999999</v>
+        <v>876.89099999999996</v>
       </c>
       <c r="V19">
-        <v>315.28100000000001</v>
+        <v>159.642</v>
       </c>
       <c r="W19">
-        <v>-53.47</v>
+        <v>-10.647</v>
       </c>
       <c r="X19">
-        <v>-82.489000000000004</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>26.667000000000002</v>
+        <v>-3.7130000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42183</v>
+        <v>38529</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>41.808999999999997</v>
+        <v>29.454000000000001</v>
       </c>
       <c r="D20">
-        <v>797.65800000000002</v>
+        <v>572.38800000000003</v>
       </c>
       <c r="E20">
-        <v>709.43700000000001</v>
+        <v>348.2</v>
       </c>
       <c r="F20">
-        <v>437.97</v>
+        <v>296.827</v>
       </c>
       <c r="G20">
-        <v>2405.8290000000002</v>
+        <v>1462.423</v>
       </c>
       <c r="H20">
-        <v>4231.107</v>
+        <v>2997.7139999999999</v>
       </c>
       <c r="I20">
-        <v>185.631</v>
+        <v>136.21</v>
       </c>
       <c r="J20">
-        <v>1559.895</v>
+        <v>247.554</v>
       </c>
       <c r="K20">
-        <v>167.87700000000001</v>
+        <v>13.177</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>805.90300000000002</v>
+        <v>992.85599999999999</v>
       </c>
       <c r="O20">
-        <v>2761.2150000000001</v>
+        <v>1391.22</v>
       </c>
       <c r="P20">
-        <v>1727.7719999999999</v>
+        <v>615.73599999999999</v>
       </c>
       <c r="Q20">
-        <v>-222.93899999999999</v>
+        <v>-234.06</v>
       </c>
       <c r="R20">
-        <v>42183</v>
+        <v>38529</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1469.8920000000001</v>
+        <v>1606.4939999999999</v>
       </c>
       <c r="U20">
-        <v>858.45799999999997</v>
+        <v>642.83100000000002</v>
       </c>
       <c r="V20">
-        <v>-79.177000000000007</v>
+        <v>-141.65</v>
       </c>
       <c r="W20">
-        <v>-57.432000000000002</v>
+        <v>-16.064</v>
       </c>
       <c r="X20">
-        <v>-119.82599999999999</v>
+        <v>-37.281999999999996</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>41.808999999999997</v>
+        <v>29.454000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42274</v>
+        <v>38620</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>207.59899999999999</v>
+        <v>92.063000000000002</v>
       </c>
       <c r="D21">
-        <v>1470.9970000000001</v>
+        <v>988.05200000000002</v>
       </c>
       <c r="E21">
-        <v>1390.2739999999999</v>
+        <v>681.46900000000005</v>
       </c>
       <c r="F21">
-        <v>766.40200000000004</v>
+        <v>476.738</v>
       </c>
       <c r="G21">
-        <v>2778.116</v>
+        <v>1778.454</v>
       </c>
       <c r="H21">
-        <v>4580.2460000000001</v>
+        <v>3271.64</v>
       </c>
       <c r="I21">
-        <v>282.77199999999999</v>
+        <v>179.03100000000001</v>
       </c>
       <c r="J21">
-        <v>1559.895</v>
+        <v>246.48</v>
       </c>
       <c r="K21">
-        <v>113.97</v>
+        <v>13.853999999999999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1050.4960000000001</v>
+        <v>1197.4380000000001</v>
       </c>
       <c r="O21">
-        <v>2996.2359999999999</v>
+        <v>1601.0150000000001</v>
       </c>
       <c r="P21">
-        <v>1673.865</v>
+        <v>615.14300000000003</v>
       </c>
       <c r="Q21">
-        <v>-307.166</v>
+        <v>-72.331999999999994</v>
       </c>
       <c r="R21">
-        <v>42274</v>
+        <v>38620</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1584.01</v>
+        <v>1670.625</v>
       </c>
       <c r="U21">
-        <v>551.29200000000003</v>
+        <v>570.49900000000002</v>
       </c>
       <c r="V21">
-        <v>-166.54599999999999</v>
+        <v>-22.556000000000001</v>
       </c>
       <c r="W21">
-        <v>-57.491</v>
+        <v>-16.149000000000001</v>
       </c>
       <c r="X21">
-        <v>-133.62799999999999</v>
+        <v>-22.536000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-79.108999999999995</v>
       </c>
       <c r="AA21">
-        <v>207.59899999999999</v>
+        <v>92.063000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42365</v>
+        <v>38711</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>175.76300000000001</v>
+        <v>94.271000000000001</v>
       </c>
       <c r="D22">
-        <v>1465.354</v>
+        <v>1072.2429999999999</v>
       </c>
       <c r="E22">
-        <v>1217.8499999999999</v>
+        <v>523.23199999999997</v>
       </c>
       <c r="F22">
-        <v>748.83</v>
+        <v>532.41099999999994</v>
       </c>
       <c r="G22">
-        <v>2865.598</v>
+        <v>1830.1949999999999</v>
       </c>
       <c r="H22">
-        <v>4720.7169999999996</v>
+        <v>3301.143</v>
       </c>
       <c r="I22">
-        <v>241.21</v>
+        <v>152.46799999999999</v>
       </c>
       <c r="J22">
-        <v>1547.115</v>
+        <v>495.61900000000003</v>
       </c>
       <c r="K22">
-        <v>164.56299999999999</v>
+        <v>14.676</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1064.6469999999999</v>
+        <v>910.726</v>
       </c>
       <c r="O22">
-        <v>3016.645</v>
+        <v>1577.6669999999999</v>
       </c>
       <c r="P22">
-        <v>1711.6780000000001</v>
+        <v>543.06500000000005</v>
       </c>
       <c r="Q22">
-        <v>425.45800000000003</v>
+        <v>371.76900000000001</v>
       </c>
       <c r="R22">
-        <v>42365</v>
+        <v>38711</v>
       </c>
       <c r="S22">
-        <v>5000</v>
+        <v>5900</v>
       </c>
       <c r="T22">
-        <v>1704.0719999999999</v>
+        <v>1723.4760000000001</v>
       </c>
       <c r="U22">
-        <v>976.75</v>
+        <v>942.26800000000003</v>
       </c>
       <c r="V22">
-        <v>482.887</v>
+        <v>501.18799999999999</v>
       </c>
       <c r="W22">
-        <v>-57.404000000000003</v>
+        <v>-16.041</v>
       </c>
       <c r="X22">
-        <v>-10.513999999999999</v>
+        <v>-100.05</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>79.108999999999995</v>
       </c>
       <c r="AA22">
-        <v>175.76300000000001</v>
+        <v>94.271000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42456</v>
+        <v>38809</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>48.750999999999998</v>
+        <v>-4.899</v>
       </c>
       <c r="D23">
-        <v>831.18</v>
+        <v>468.18099999999998</v>
       </c>
       <c r="E23">
-        <v>670.66300000000001</v>
+        <v>221.86</v>
       </c>
       <c r="F23">
-        <v>464.78500000000003</v>
+        <v>256.09899999999999</v>
       </c>
       <c r="G23">
-        <v>2524.0830000000001</v>
+        <v>1379.8430000000001</v>
       </c>
       <c r="H23">
-        <v>4364.6949999999997</v>
+        <v>2896.779</v>
       </c>
       <c r="I23">
-        <v>176.66499999999999</v>
+        <v>102.792</v>
       </c>
       <c r="J23">
-        <v>1547.434</v>
+        <v>494.87099999999998</v>
       </c>
       <c r="K23">
-        <v>89</v>
+        <v>10.289</v>
       </c>
       <c r="L23">
-        <v>-75.525999999999996</v>
+        <v>-4.2140000000000004</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-32.743000000000002</v>
       </c>
       <c r="N23">
-        <v>768.37300000000005</v>
+        <v>639.46400000000006</v>
       </c>
       <c r="O23">
-        <v>2718.1529999999998</v>
+        <v>1274.1289999999999</v>
       </c>
       <c r="P23">
-        <v>1636.434</v>
+        <v>505.16</v>
       </c>
       <c r="Q23">
-        <v>119.13</v>
+        <v>-360.97300000000001</v>
       </c>
       <c r="R23">
-        <v>42456</v>
+        <v>38809</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1646.5419999999999</v>
+        <v>1622.65</v>
       </c>
       <c r="U23">
-        <v>1095.8800000000001</v>
+        <v>581.29499999999996</v>
       </c>
       <c r="V23">
-        <v>313.279</v>
+        <v>-75.239000000000004</v>
       </c>
       <c r="W23">
-        <v>-57.405999999999999</v>
+        <v>-16.030999999999999</v>
       </c>
       <c r="X23">
-        <v>-171.327</v>
+        <v>-126.607</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-147.67500000000001</v>
       </c>
       <c r="AA23">
-        <v>48.750999999999998</v>
+        <v>-4.899</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42547</v>
+        <v>38900</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>52.106000000000002</v>
+        <v>27.088000000000001</v>
       </c>
       <c r="D24">
-        <v>878.94500000000005</v>
+        <v>527.76400000000001</v>
       </c>
       <c r="E24">
-        <v>703.82100000000003</v>
+        <v>290.48</v>
       </c>
       <c r="F24">
-        <v>482.82799999999997</v>
+        <v>287.19499999999999</v>
       </c>
       <c r="G24">
-        <v>2523.3560000000002</v>
+        <v>1268.354</v>
       </c>
       <c r="H24">
-        <v>4344.3850000000002</v>
+        <v>2735.3649999999998</v>
       </c>
       <c r="I24">
-        <v>214.24299999999999</v>
+        <v>128.27699999999999</v>
       </c>
       <c r="J24">
-        <v>1547.7529999999999</v>
+        <v>494.35899999999998</v>
       </c>
       <c r="K24">
-        <v>5.4</v>
+        <v>10.016999999999999</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>745.02</v>
+        <v>639.75300000000004</v>
       </c>
       <c r="O24">
-        <v>2695.3870000000002</v>
+        <v>1277.8440000000001</v>
       </c>
       <c r="P24">
-        <v>1553.153</v>
+        <v>504.37599999999998</v>
       </c>
       <c r="Q24">
-        <v>-171.78200000000001</v>
+        <v>-164.208</v>
       </c>
       <c r="R24">
-        <v>42547</v>
+        <v>38900</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1648.998</v>
+        <v>1457.521</v>
       </c>
       <c r="U24">
-        <v>924.09799999999996</v>
+        <v>417.08699999999999</v>
       </c>
       <c r="V24">
-        <v>-7.343</v>
+        <v>-13.201000000000001</v>
       </c>
       <c r="W24">
-        <v>-63.905000000000001</v>
+        <v>-20.471</v>
       </c>
       <c r="X24">
-        <v>-147.97900000000001</v>
+        <v>-209.505</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>19.8</v>
+        <v>75.05</v>
       </c>
       <c r="AA24">
-        <v>52.106000000000002</v>
+        <v>27.088000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42638</v>
+        <v>38991</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>257.798</v>
+        <v>99.584000000000003</v>
       </c>
       <c r="D25">
-        <v>1679.7570000000001</v>
+        <v>1039.1379999999999</v>
       </c>
       <c r="E25">
-        <v>1452.931</v>
+        <v>679.36300000000006</v>
       </c>
       <c r="F25">
-        <v>880.19500000000005</v>
+        <v>526.27700000000004</v>
       </c>
       <c r="G25">
-        <v>3146.9870000000001</v>
+        <v>1560.239</v>
       </c>
       <c r="H25">
-        <v>4955.1469999999999</v>
+        <v>2962.777</v>
       </c>
       <c r="I25">
-        <v>344.87400000000002</v>
+        <v>188.51</v>
       </c>
       <c r="J25">
-        <v>1198.461</v>
+        <v>494.98899999999998</v>
       </c>
       <c r="K25">
-        <v>178.666</v>
+        <v>11.596</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1615.7190000000001</v>
+        <v>900.81100000000004</v>
       </c>
       <c r="O25">
-        <v>3178.558</v>
+        <v>1544.3520000000001</v>
       </c>
       <c r="P25">
-        <v>1726.7380000000001</v>
+        <v>506.58499999999998</v>
       </c>
       <c r="Q25">
-        <v>-93.725999999999999</v>
+        <v>-107.98699999999999</v>
       </c>
       <c r="R25">
-        <v>42638</v>
+        <v>38991</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1776.5889999999999</v>
+        <v>1418.425</v>
       </c>
       <c r="U25">
-        <v>830.37199999999996</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="V25">
-        <v>-110.529</v>
+        <v>-12.396000000000001</v>
       </c>
       <c r="W25">
-        <v>-63.954000000000001</v>
+        <v>-19.631</v>
       </c>
       <c r="X25">
-        <v>60.290999999999997</v>
+        <v>-144.14500000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-19.8</v>
+        <v>72.625</v>
       </c>
       <c r="AA25">
-        <v>257.798</v>
+        <v>99.584000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42729</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>192.72499999999999</v>
+        <v>108.282</v>
       </c>
       <c r="D26">
-        <v>1629.94</v>
+        <v>1116.3979999999999</v>
       </c>
       <c r="E26">
-        <v>1319.963</v>
+        <v>556.28700000000003</v>
       </c>
       <c r="F26">
-        <v>841.08699999999999</v>
+        <v>608.29399999999998</v>
       </c>
       <c r="G26">
-        <v>3227.607</v>
+        <v>1718.3150000000001</v>
       </c>
       <c r="H26">
-        <v>5091.366</v>
+        <v>3096.9050000000002</v>
       </c>
       <c r="I26">
-        <v>319.52499999999998</v>
+        <v>160.01499999999999</v>
       </c>
       <c r="J26">
-        <v>1198.6790000000001</v>
+        <v>494.91699999999997</v>
       </c>
       <c r="K26">
-        <v>172.58199999999999</v>
+        <v>10.582000000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1617.8589999999999</v>
+        <v>905.89300000000003</v>
       </c>
       <c r="O26">
-        <v>3205.9259999999999</v>
+        <v>1559.0150000000001</v>
       </c>
       <c r="P26">
-        <v>1720.9739999999999</v>
+        <v>505.49900000000002</v>
       </c>
       <c r="Q26">
-        <v>451.91300000000001</v>
+        <v>406.3</v>
       </c>
       <c r="R26">
-        <v>42729</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="T26">
-        <v>1885.44</v>
+        <v>1537.89</v>
       </c>
       <c r="U26">
-        <v>1282.2850000000001</v>
+        <v>715.4</v>
       </c>
       <c r="V26">
-        <v>621.90599999999995</v>
+        <v>421.483</v>
       </c>
       <c r="W26">
-        <v>-63.616</v>
+        <v>-19.149000000000001</v>
       </c>
       <c r="X26">
-        <v>-116.483</v>
+        <v>12.978</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,125 +2923,125 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>192.72499999999999</v>
+        <v>108.282</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>68.599000000000004</v>
+        <v>32.89</v>
       </c>
       <c r="D27">
-        <v>849.66300000000001</v>
+        <v>625.26700000000005</v>
       </c>
       <c r="E27">
-        <v>676.94500000000005</v>
+        <v>327.12400000000002</v>
       </c>
       <c r="F27">
-        <v>473.63099999999997</v>
+        <v>331.55500000000001</v>
       </c>
       <c r="G27">
-        <v>2799.7330000000002</v>
+        <v>1548.028</v>
       </c>
       <c r="H27">
-        <v>4645.87</v>
+        <v>2892.1309999999999</v>
       </c>
       <c r="I27">
-        <v>241.214</v>
+        <v>100.336</v>
       </c>
       <c r="J27">
-        <v>1198.896</v>
+        <v>494.86399999999998</v>
       </c>
       <c r="K27">
-        <v>65.293999999999997</v>
+        <v>7.3959999999999999</v>
       </c>
       <c r="L27">
-        <v>-107.336</v>
+        <v>-3.089</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1201.8140000000001</v>
+        <v>622.03300000000002</v>
       </c>
       <c r="O27">
-        <v>2794.2260000000001</v>
+        <v>1359.88</v>
       </c>
       <c r="P27">
-        <v>1614.0039999999999</v>
+        <v>502.26</v>
       </c>
       <c r="Q27">
-        <v>180.79599999999999</v>
+        <v>-26.806000000000001</v>
       </c>
       <c r="R27">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1851.644</v>
+        <v>1532.251</v>
       </c>
       <c r="U27">
-        <v>1463.0809999999999</v>
+        <v>688.59400000000005</v>
       </c>
       <c r="V27">
-        <v>411.928</v>
+        <v>53.637</v>
       </c>
       <c r="W27">
-        <v>-63.404000000000003</v>
+        <v>-19.297000000000001</v>
       </c>
       <c r="X27">
-        <v>-211.7</v>
+        <v>-48.308</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA27">
-        <v>68.599000000000004</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>67.722999999999999</v>
+        <v>4.8010000000000002</v>
       </c>
       <c r="D28">
-        <v>972.50599999999997</v>
+        <v>691.40800000000002</v>
       </c>
       <c r="E28">
-        <v>846.54700000000003</v>
+        <v>417.68700000000001</v>
       </c>
       <c r="F28">
-        <v>519.93299999999999</v>
+        <v>355.67200000000003</v>
       </c>
       <c r="G28">
-        <v>3094.8049999999998</v>
+        <v>1533.9459999999999</v>
       </c>
       <c r="H28">
-        <v>4912.7430000000004</v>
+        <v>2908.944</v>
       </c>
       <c r="I28">
-        <v>368.31200000000001</v>
+        <v>162.18100000000001</v>
       </c>
       <c r="J28">
-        <v>1199.114</v>
+        <v>494.65800000000002</v>
       </c>
       <c r="K28">
-        <v>186.863</v>
+        <v>89.051000000000002</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1472.2470000000001</v>
+        <v>619.36</v>
       </c>
       <c r="O28">
-        <v>3080.2489999999998</v>
+        <v>1362</v>
       </c>
       <c r="P28">
-        <v>1735.893</v>
+        <v>583.70899999999995</v>
       </c>
       <c r="Q28">
-        <v>-29.581</v>
+        <v>-163.02099999999999</v>
       </c>
       <c r="R28">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1832.4939999999999</v>
+        <v>1546.944</v>
       </c>
       <c r="U28">
-        <v>1433.5</v>
+        <v>525.57299999999998</v>
       </c>
       <c r="V28">
-        <v>-45.822000000000003</v>
+        <v>-24.733000000000001</v>
       </c>
       <c r="W28">
-        <v>-71.251000000000005</v>
+        <v>-25.626000000000001</v>
       </c>
       <c r="X28">
-        <v>51.244</v>
+        <v>-131.93700000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA28">
-        <v>67.722999999999999</v>
+        <v>4.8010000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>265.58300000000003</v>
+        <v>161.58000000000001</v>
       </c>
       <c r="D29">
-        <v>1791.502</v>
+        <v>1223.038</v>
       </c>
       <c r="E29">
-        <v>1655.752</v>
+        <v>892.70799999999997</v>
       </c>
       <c r="F29">
-        <v>916.23</v>
+        <v>608.98099999999999</v>
       </c>
       <c r="G29">
-        <v>3762.24</v>
+        <v>1907.4179999999999</v>
       </c>
       <c r="H29">
-        <v>5544.6480000000001</v>
+        <v>3286.1729999999998</v>
       </c>
       <c r="I29">
-        <v>525.85199999999998</v>
+        <v>208.20699999999999</v>
       </c>
       <c r="J29">
-        <v>1693.261</v>
+        <v>709.72299999999996</v>
       </c>
       <c r="K29">
-        <v>189.012</v>
+        <v>10.587999999999999</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1484.7570000000001</v>
+        <v>970.95799999999997</v>
       </c>
       <c r="O29">
-        <v>3588.3960000000002</v>
+        <v>1933.252</v>
       </c>
       <c r="P29">
-        <v>1882.2729999999999</v>
+        <v>855.51099999999997</v>
       </c>
       <c r="Q29">
-        <v>-188.72200000000001</v>
+        <v>-114.63200000000001</v>
       </c>
       <c r="R29">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1956.252</v>
+        <v>1352.921</v>
       </c>
       <c r="U29">
-        <v>1244.778</v>
+        <v>410.94099999999997</v>
       </c>
       <c r="V29">
-        <v>-164.31</v>
+        <v>18.094000000000001</v>
       </c>
       <c r="W29">
-        <v>-71.356999999999999</v>
+        <v>-25.582999999999998</v>
       </c>
       <c r="X29">
-        <v>-0.79700000000000004</v>
+        <v>-89.65</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>265.58300000000003</v>
+        <v>161.58000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-5.298</v>
+        <v>133.732</v>
       </c>
       <c r="D30">
-        <v>1596.1110000000001</v>
+        <v>1297.8440000000001</v>
       </c>
       <c r="E30">
-        <v>1405.3989999999999</v>
+        <v>654.78899999999999</v>
       </c>
       <c r="F30">
-        <v>825.00900000000001</v>
+        <v>647.92100000000005</v>
       </c>
       <c r="G30">
-        <v>3633.9259999999999</v>
+        <v>1888.24</v>
       </c>
       <c r="H30">
-        <v>5289.9830000000002</v>
+        <v>3237.0630000000001</v>
       </c>
       <c r="I30">
-        <v>348.476</v>
+        <v>186.202</v>
       </c>
       <c r="J30">
-        <v>1693.6089999999999</v>
+        <v>709.72299999999996</v>
       </c>
       <c r="K30">
-        <v>154.95699999999999</v>
+        <v>10.201000000000001</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1251.6969999999999</v>
+        <v>887.67100000000005</v>
       </c>
       <c r="O30">
-        <v>3460.0259999999998</v>
+        <v>1851.971</v>
       </c>
       <c r="P30">
-        <v>1848.566</v>
+        <v>855.27200000000005</v>
       </c>
       <c r="Q30">
-        <v>336.45600000000002</v>
+        <v>363.517</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="S30">
-        <v>5400</v>
+        <v>5900</v>
       </c>
       <c r="T30">
-        <v>1829.9570000000001</v>
+        <v>1385.0920000000001</v>
       </c>
       <c r="U30">
-        <v>1581.2339999999999</v>
+        <v>774.45799999999997</v>
       </c>
       <c r="V30">
-        <v>522.58199999999999</v>
+        <v>554.79600000000005</v>
       </c>
       <c r="W30">
-        <v>-70.960999999999999</v>
+        <v>-23.591000000000001</v>
       </c>
       <c r="X30">
-        <v>-150.91999999999999</v>
+        <v>-164.02199999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>-5.298</v>
+        <v>133.732</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-112.492</v>
+        <v>37.47</v>
       </c>
       <c r="D31">
-        <v>716.34100000000001</v>
+        <v>704.22</v>
       </c>
       <c r="E31">
-        <v>612.69799999999998</v>
+        <v>388.69299999999998</v>
       </c>
       <c r="F31">
-        <v>379.46800000000002</v>
+        <v>374.637</v>
       </c>
       <c r="G31">
-        <v>3021.837</v>
+        <v>1722.8109999999999</v>
       </c>
       <c r="H31">
-        <v>4729.0720000000001</v>
+        <v>3126.4789999999998</v>
       </c>
       <c r="I31">
-        <v>256.43299999999999</v>
+        <v>163.608</v>
       </c>
       <c r="J31">
-        <v>1693.9770000000001</v>
+        <v>709.72299999999996</v>
       </c>
       <c r="K31">
-        <v>21.611000000000001</v>
+        <v>171.249</v>
       </c>
       <c r="L31">
-        <v>-133.69800000000001</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>852.52599999999995</v>
+        <v>895.88099999999997</v>
       </c>
       <c r="O31">
-        <v>3157.7130000000002</v>
+        <v>1859.768</v>
       </c>
       <c r="P31">
-        <v>1715.588</v>
+        <v>1016.283</v>
       </c>
       <c r="Q31">
-        <v>17.71</v>
+        <v>57.722000000000001</v>
       </c>
       <c r="R31">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1571.3589999999999</v>
+        <v>1266.711</v>
       </c>
       <c r="U31">
-        <v>1598.944</v>
+        <v>832.18</v>
       </c>
       <c r="V31">
-        <v>317.73899999999998</v>
+        <v>153.852</v>
       </c>
       <c r="W31">
-        <v>-70.781000000000006</v>
+        <v>-22.917000000000002</v>
       </c>
       <c r="X31">
-        <v>-275.72399999999999</v>
+        <v>-4.3600000000000003</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>-112.492</v>
+        <v>37.47</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>60.298999999999999</v>
+        <v>37.485999999999997</v>
       </c>
       <c r="D32">
-        <v>904.45799999999997</v>
+        <v>784.28599999999994</v>
       </c>
       <c r="E32">
-        <v>739.26800000000003</v>
+        <v>562.50199999999995</v>
       </c>
       <c r="F32">
-        <v>492.81</v>
+        <v>407.89699999999999</v>
       </c>
       <c r="G32">
-        <v>2827.6329999999998</v>
+        <v>1719.356</v>
       </c>
       <c r="H32">
-        <v>5113.8559999999998</v>
+        <v>3205.3110000000001</v>
       </c>
       <c r="I32">
-        <v>339.86099999999999</v>
+        <v>183.28</v>
       </c>
       <c r="J32">
-        <v>1694.35</v>
+        <v>709.72299999999996</v>
       </c>
       <c r="K32">
-        <v>20.120999999999999</v>
+        <v>192.941</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1052.444</v>
+        <v>939.06200000000001</v>
       </c>
       <c r="O32">
-        <v>3347.1060000000002</v>
+        <v>1897.0940000000001</v>
       </c>
       <c r="P32">
-        <v>1714.471</v>
+        <v>1037.7909999999999</v>
       </c>
       <c r="Q32">
-        <v>-439.87200000000001</v>
+        <v>-237.559</v>
       </c>
       <c r="R32">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1766.75</v>
+        <v>1308.2170000000001</v>
       </c>
       <c r="U32">
-        <v>1159.0719999999999</v>
+        <v>594.62099999999998</v>
       </c>
       <c r="V32">
-        <v>-76.938000000000002</v>
+        <v>-131.072</v>
       </c>
       <c r="W32">
-        <v>-78.747</v>
+        <v>-27.949000000000002</v>
       </c>
       <c r="X32">
-        <v>-145.501</v>
+        <v>14.129</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>60.298999999999999</v>
+        <v>37.485999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>263.86099999999999</v>
+        <v>138.22900000000001</v>
       </c>
       <c r="D33">
-        <v>1569.6859999999999</v>
+        <v>1301.961</v>
       </c>
       <c r="E33">
-        <v>1391.242</v>
+        <v>946.92899999999997</v>
       </c>
       <c r="F33">
-        <v>794.73599999999999</v>
+        <v>644.37900000000002</v>
       </c>
       <c r="G33">
-        <v>3192.45</v>
+        <v>1942.6179999999999</v>
       </c>
       <c r="H33">
-        <v>5495.3289999999997</v>
+        <v>3406.752</v>
       </c>
       <c r="I33">
-        <v>458.80799999999999</v>
+        <v>261.90100000000001</v>
       </c>
       <c r="J33">
-        <v>1694.721</v>
+        <v>709.72299999999996</v>
       </c>
       <c r="K33">
-        <v>20.306999999999999</v>
+        <v>232.648</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1321.923</v>
+        <v>1105.405</v>
       </c>
       <c r="O33">
-        <v>3608.0479999999998</v>
+        <v>2050.5970000000002</v>
       </c>
       <c r="P33">
-        <v>1715.028</v>
+        <v>942.37099999999998</v>
       </c>
       <c r="Q33">
-        <v>-251.965</v>
+        <v>-238.10900000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1887.2809999999999</v>
+        <v>1356.155</v>
       </c>
       <c r="U33">
-        <v>907.10699999999997</v>
+        <v>356.512</v>
       </c>
       <c r="V33">
-        <v>-66.055000000000007</v>
+        <v>1.494</v>
       </c>
       <c r="W33">
-        <v>-80.034000000000006</v>
+        <v>-28.35</v>
       </c>
       <c r="X33">
-        <v>-157.32499999999999</v>
+        <v>-209.00200000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>263.86099999999999</v>
+        <v>138.22900000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>8.766</v>
+        <v>93.581000000000003</v>
       </c>
       <c r="D34">
-        <v>1389.1610000000001</v>
+        <v>1231.0530000000001</v>
       </c>
       <c r="E34">
-        <v>1200.9469999999999</v>
+        <v>611.76599999999996</v>
       </c>
       <c r="F34">
-        <v>669.58799999999997</v>
+        <v>588.89300000000003</v>
       </c>
       <c r="G34">
-        <v>3082.5039999999999</v>
+        <v>1714.0060000000001</v>
       </c>
       <c r="H34">
-        <v>5262.9880000000003</v>
+        <v>3168.797</v>
       </c>
       <c r="I34">
-        <v>333.52100000000002</v>
+        <v>184.453</v>
       </c>
       <c r="J34">
-        <v>1695.0920000000001</v>
+        <v>709.72299999999996</v>
       </c>
       <c r="K34">
-        <v>9.74</v>
+        <v>7.5860000000000003</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1274.3240000000001</v>
+        <v>799.89200000000005</v>
       </c>
       <c r="O34">
-        <v>3508.502</v>
+        <v>1778.011</v>
       </c>
       <c r="P34">
-        <v>1704.8320000000001</v>
+        <v>717.30899999999997</v>
       </c>
       <c r="Q34">
-        <v>275.26400000000001</v>
+        <v>273.87799999999999</v>
       </c>
       <c r="R34">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="S34">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="T34">
-        <v>1754.4860000000001</v>
+        <v>1390.7860000000001</v>
       </c>
       <c r="U34">
-        <v>1182.3710000000001</v>
+        <v>630.39</v>
       </c>
       <c r="V34">
-        <v>471.25099999999998</v>
+        <v>568.91099999999994</v>
       </c>
       <c r="W34">
-        <v>-79.695999999999998</v>
+        <v>-27.849</v>
       </c>
       <c r="X34">
-        <v>-158.55099999999999</v>
+        <v>-258.15800000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,42 +3587,42 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>8.766</v>
+        <v>93.581000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>26.727</v>
+        <v>19.73</v>
       </c>
       <c r="D35">
-        <v>732.51</v>
+        <v>621.34</v>
       </c>
       <c r="E35">
-        <v>638.41700000000003</v>
+        <v>365.03699999999998</v>
       </c>
       <c r="F35">
-        <v>406.06</v>
+        <v>322.13400000000001</v>
       </c>
       <c r="G35">
-        <v>2631.8580000000002</v>
+        <v>1449.82</v>
       </c>
       <c r="H35">
-        <v>4934.7730000000001</v>
+        <v>2927.8220000000001</v>
       </c>
       <c r="I35">
-        <v>234.262</v>
+        <v>120.59099999999999</v>
       </c>
       <c r="J35">
-        <v>1695.462</v>
+        <v>709.72299999999996</v>
       </c>
       <c r="K35">
-        <v>13.409000000000001</v>
+        <v>45.716000000000001</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>948.72500000000002</v>
+        <v>571.25199999999995</v>
       </c>
       <c r="O35">
-        <v>3280.2420000000002</v>
+        <v>1546.9670000000001</v>
       </c>
       <c r="P35">
-        <v>1867.748</v>
+        <v>755.43899999999996</v>
       </c>
       <c r="Q35">
-        <v>14.263</v>
+        <v>-40.002000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1654.5309999999999</v>
+        <v>1380.855</v>
       </c>
       <c r="U35">
-        <v>1196.634</v>
+        <v>590.38800000000003</v>
       </c>
       <c r="V35">
-        <v>264.49400000000003</v>
+        <v>-22.657</v>
       </c>
       <c r="W35">
-        <v>-79.274000000000001</v>
+        <v>-27.853999999999999</v>
       </c>
       <c r="X35">
-        <v>-220.37899999999999</v>
+        <v>11.304</v>
       </c>
       <c r="Y35">
-        <v>129.34299999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>26.727</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>13.433</v>
+        <v>39.274999999999999</v>
       </c>
       <c r="D36">
-        <v>984.53700000000003</v>
+        <v>792.202</v>
       </c>
       <c r="E36">
-        <v>837.48699999999997</v>
+        <v>652.55700000000002</v>
       </c>
       <c r="F36">
-        <v>546.28</v>
+        <v>398.92399999999998</v>
       </c>
       <c r="G36">
-        <v>2830.0949999999998</v>
+        <v>1602.229</v>
       </c>
       <c r="H36">
-        <v>5038.6099999999997</v>
+        <v>3478.1759999999999</v>
       </c>
       <c r="I36">
-        <v>330.053</v>
+        <v>165.12799999999999</v>
       </c>
       <c r="J36">
-        <v>1695.8330000000001</v>
+        <v>1134.723</v>
       </c>
       <c r="K36">
-        <v>12.787000000000001</v>
+        <v>11.958</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1072.6959999999999</v>
+        <v>612.72299999999996</v>
       </c>
       <c r="O36">
-        <v>3322.741</v>
+        <v>2088.5059999999999</v>
       </c>
       <c r="P36">
-        <v>1861.106</v>
+        <v>1146.681</v>
       </c>
       <c r="Q36">
-        <v>-45.591999999999999</v>
+        <v>-198.35400000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1715.8689999999999</v>
+        <v>1389.67</v>
       </c>
       <c r="U36">
-        <v>1151.0419999999999</v>
+        <v>392.03399999999999</v>
       </c>
       <c r="V36">
-        <v>71.781999999999996</v>
+        <v>-157.21100000000001</v>
       </c>
       <c r="W36">
-        <v>-85.634</v>
+        <v>-27.969000000000001</v>
       </c>
       <c r="X36">
-        <v>-86.177000000000007</v>
+        <v>359.24099999999999</v>
       </c>
       <c r="Y36">
-        <v>123.188</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AA36">
-        <v>13.433</v>
+        <v>39.274999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>212.94900000000001</v>
+        <v>150.36199999999999</v>
       </c>
       <c r="D37">
-        <v>1575.173</v>
+        <v>1279.221</v>
       </c>
       <c r="E37">
-        <v>1450.912</v>
+        <v>1116.0329999999999</v>
       </c>
       <c r="F37">
-        <v>792.01800000000003</v>
+        <v>629.47</v>
       </c>
       <c r="G37">
-        <v>3413.13</v>
+        <v>1991.905</v>
       </c>
       <c r="H37">
-        <v>5554.6239999999998</v>
+        <v>3861.3270000000002</v>
       </c>
       <c r="I37">
-        <v>501.13600000000002</v>
+        <v>225.21</v>
       </c>
       <c r="J37">
-        <v>1696.204</v>
+        <v>1134.723</v>
       </c>
       <c r="K37">
-        <v>7.9029999999999996</v>
+        <v>33.061999999999998</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1466.7349999999999</v>
+        <v>887.11500000000001</v>
       </c>
       <c r="O37">
-        <v>3713.7170000000001</v>
+        <v>2373.395</v>
       </c>
       <c r="P37">
-        <v>1848.5619999999999</v>
+        <v>1167.7850000000001</v>
       </c>
       <c r="Q37">
-        <v>-90.61</v>
+        <v>-94.676000000000002</v>
       </c>
       <c r="R37">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1840.9069999999999</v>
+        <v>1487.932</v>
       </c>
       <c r="U37">
-        <v>1060.432</v>
+        <v>297.358</v>
       </c>
       <c r="V37">
-        <v>53.292000000000002</v>
+        <v>-30.663</v>
       </c>
       <c r="W37">
-        <v>-85.852000000000004</v>
+        <v>-27.981000000000002</v>
       </c>
       <c r="X37">
-        <v>-110.624</v>
+        <v>-30.161000000000001</v>
       </c>
       <c r="Y37">
-        <v>114.96599999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AA37">
-        <v>212.94900000000001</v>
+        <v>150.36199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43828</v>
+        <v>40174</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>267.34500000000003</v>
+        <v>165.56299999999999</v>
       </c>
       <c r="D38">
-        <v>1428.0070000000001</v>
+        <v>1375.184</v>
       </c>
       <c r="E38">
-        <v>1442.779</v>
+        <v>1038.8019999999999</v>
       </c>
       <c r="F38">
-        <v>667.88599999999997</v>
+        <v>710.43200000000002</v>
       </c>
       <c r="G38">
-        <v>6747.5209999999997</v>
+        <v>2045.0319999999999</v>
       </c>
       <c r="H38">
-        <v>8855.6280000000006</v>
+        <v>3896.8919999999998</v>
       </c>
       <c r="I38">
-        <v>343.92700000000002</v>
+        <v>173.38800000000001</v>
       </c>
       <c r="J38">
-        <v>4046.4569999999999</v>
+        <v>1134.723</v>
       </c>
       <c r="K38">
-        <v>0.503</v>
+        <v>14.113</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1257.0820000000001</v>
+        <v>815.88800000000003</v>
       </c>
       <c r="O38">
-        <v>5860.098</v>
+        <v>2302.12</v>
       </c>
       <c r="P38">
-        <v>4046.96</v>
+        <v>1148.836</v>
       </c>
       <c r="Q38">
-        <v>3519.9369999999999</v>
+        <v>338.68700000000001</v>
       </c>
       <c r="R38">
-        <v>43828</v>
+        <v>40174</v>
       </c>
       <c r="S38">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="T38">
-        <v>2995.53</v>
+        <v>1594.7719999999999</v>
       </c>
       <c r="U38">
-        <v>4580.3689999999997</v>
+        <v>636.04499999999996</v>
       </c>
       <c r="V38">
-        <v>263.49299999999999</v>
+        <v>476.154</v>
       </c>
       <c r="W38">
-        <v>-85.843999999999994</v>
+        <v>-27.654</v>
       </c>
       <c r="X38">
-        <v>3227.7530000000002</v>
+        <v>-103.605</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-301.98200000000003</v>
       </c>
       <c r="AA38">
-        <v>267.34500000000003</v>
+        <v>165.56299999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43919</v>
+        <v>40265</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-69.637</v>
+        <v>58.942999999999998</v>
       </c>
       <c r="D39">
-        <v>1105.57</v>
+        <v>672.37099999999998</v>
       </c>
       <c r="E39">
-        <v>1234.943</v>
+        <v>526.03099999999995</v>
       </c>
       <c r="F39">
-        <v>597.90800000000002</v>
+        <v>365.91</v>
       </c>
       <c r="G39">
-        <v>3318.5030000000002</v>
+        <v>2212.84</v>
       </c>
       <c r="H39">
-        <v>10424.359</v>
+        <v>4078.0230000000001</v>
       </c>
       <c r="I39">
-        <v>308.49599999999998</v>
+        <v>128.78</v>
       </c>
       <c r="J39">
-        <v>5156.29</v>
+        <v>1390.4839999999999</v>
       </c>
       <c r="K39">
-        <v>9.4049999999999994</v>
+        <v>11.438000000000001</v>
       </c>
       <c r="L39">
-        <v>-1.4239999999999999</v>
+        <v>-1.948</v>
       </c>
       <c r="M39">
-        <v>-50.186</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1738.556</v>
+        <v>691.84299999999996</v>
       </c>
       <c r="O39">
-        <v>7633.8109999999997</v>
+        <v>2408.1689999999999</v>
       </c>
       <c r="P39">
-        <v>5425.9319999999998</v>
+        <v>1540.5730000000001</v>
       </c>
       <c r="Q39">
-        <v>-3342.4850000000001</v>
+        <v>623.75400000000002</v>
       </c>
       <c r="R39">
-        <v>43919</v>
+        <v>40265</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2790.5479999999998</v>
+        <v>1669.854</v>
       </c>
       <c r="U39">
-        <v>1151.7070000000001</v>
+        <v>1259.799</v>
       </c>
       <c r="V39">
-        <v>291.62700000000001</v>
+        <v>265.11700000000002</v>
       </c>
       <c r="W39">
-        <v>-93.162000000000006</v>
+        <v>-27.292000000000002</v>
       </c>
       <c r="X39">
-        <v>819.46900000000005</v>
+        <v>382.14299999999997</v>
       </c>
       <c r="Y39">
-        <v>152.53299999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>-69.637</v>
+        <v>58.942999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44010</v>
+        <v>40356</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-33.914999999999999</v>
+        <v>43.631</v>
       </c>
       <c r="D40">
-        <v>860.279</v>
+        <v>737.79100000000005</v>
       </c>
       <c r="E40">
-        <v>1164.19</v>
+        <v>663.48400000000004</v>
       </c>
       <c r="F40">
-        <v>459.02199999999999</v>
+        <v>387.41699999999997</v>
       </c>
       <c r="G40">
-        <v>3185.6669999999999</v>
+        <v>2079.8339999999998</v>
       </c>
       <c r="H40">
-        <v>10222.049999999999</v>
+        <v>3973.6759999999999</v>
       </c>
       <c r="I40">
-        <v>335.23599999999999</v>
+        <v>206.96299999999999</v>
       </c>
       <c r="J40">
-        <v>4802.509</v>
+        <v>1396.98</v>
       </c>
       <c r="K40">
-        <v>6.4189999999999996</v>
+        <v>10.632</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1981.5650000000001</v>
+        <v>656.85500000000002</v>
       </c>
       <c r="O40">
-        <v>7555.7659999999996</v>
+        <v>2384.75</v>
       </c>
       <c r="P40">
-        <v>5399.4170000000004</v>
+        <v>1407.6120000000001</v>
       </c>
       <c r="Q40">
-        <v>-199.86799999999999</v>
+        <v>-387.524</v>
       </c>
       <c r="R40">
-        <v>44010</v>
+        <v>40356</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2666.2840000000001</v>
+        <v>1588.9259999999999</v>
       </c>
       <c r="U40">
-        <v>966.11599999999999</v>
+        <v>872.27499999999998</v>
       </c>
       <c r="V40">
-        <v>-33.287999999999997</v>
+        <v>-92.087999999999994</v>
       </c>
       <c r="W40">
-        <v>-93.081000000000003</v>
+        <v>-36.826000000000001</v>
       </c>
       <c r="X40">
-        <v>-141.005</v>
+        <v>-262.15199999999999</v>
       </c>
       <c r="Y40">
-        <v>169.56</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-33.914999999999999</v>
+        <v>43.631</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44101</v>
+        <v>40447</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>220.898</v>
+        <v>155.16399999999999</v>
       </c>
       <c r="D41">
-        <v>1776.623</v>
+        <v>1313.3019999999999</v>
       </c>
       <c r="E41">
-        <v>1710.146</v>
+        <v>1210.46</v>
       </c>
       <c r="F41">
-        <v>904.15599999999995</v>
+        <v>641.048</v>
       </c>
       <c r="G41">
-        <v>3758.962</v>
+        <v>2346.71</v>
       </c>
       <c r="H41">
-        <v>10703.177</v>
+        <v>4215.6170000000002</v>
       </c>
       <c r="I41">
-        <v>466.17200000000003</v>
+        <v>267.17500000000001</v>
       </c>
       <c r="J41">
-        <v>4777.8069999999998</v>
+        <v>1404.556</v>
       </c>
       <c r="K41">
-        <v>10.032</v>
+        <v>103.625</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2315.549</v>
+        <v>978.48599999999999</v>
       </c>
       <c r="O41">
-        <v>7871.87</v>
+        <v>2728.306</v>
       </c>
       <c r="P41">
-        <v>5362.7139999999999</v>
+        <v>1508.181</v>
       </c>
       <c r="Q41">
-        <v>94.388999999999996</v>
+        <v>-374.37200000000001</v>
       </c>
       <c r="R41">
-        <v>44101</v>
+        <v>40447</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2831.3069999999998</v>
+        <v>1487.3109999999999</v>
       </c>
       <c r="U41">
-        <v>1061.2049999999999</v>
+        <v>497.90300000000002</v>
       </c>
       <c r="V41">
-        <v>235.971</v>
+        <v>-167.26300000000001</v>
       </c>
       <c r="W41">
-        <v>-93.18</v>
+        <v>-34.802</v>
       </c>
       <c r="X41">
-        <v>-127.946</v>
+        <v>-188.35499999999999</v>
       </c>
       <c r="Y41">
-        <v>162.792</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>220.898</v>
+        <v>155.16399999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44192</v>
+        <v>40538</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>140.01400000000001</v>
+      </c>
+      <c r="D42">
+        <v>1278.6969999999999</v>
+      </c>
+      <c r="E42">
+        <v>961.25199999999995</v>
+      </c>
+      <c r="F42">
+        <v>647.09</v>
+      </c>
+      <c r="G42">
+        <v>2221.049</v>
+      </c>
+      <c r="H42">
+        <v>4093.2260000000001</v>
+      </c>
+      <c r="I42">
+        <v>132.517</v>
+      </c>
+      <c r="J42">
+        <v>1397.681</v>
+      </c>
+      <c r="K42">
+        <v>14.568</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>718.80100000000004</v>
+      </c>
+      <c r="O42">
+        <v>2477.806</v>
+      </c>
+      <c r="P42">
+        <v>1412.249</v>
+      </c>
+      <c r="Q42">
+        <v>229.893</v>
+      </c>
+      <c r="R42">
+        <v>40538</v>
+      </c>
+      <c r="S42">
+        <v>5800</v>
+      </c>
+      <c r="T42">
+        <v>1615.42</v>
+      </c>
+      <c r="U42">
+        <v>727.79600000000005</v>
+      </c>
+      <c r="V42">
+        <v>362.21499999999997</v>
+      </c>
+      <c r="W42">
+        <v>-34.128</v>
+      </c>
+      <c r="X42">
+        <v>-102.23099999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>140.01400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40629</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>17.196000000000002</v>
+      </c>
+      <c r="D43">
+        <v>671.98599999999999</v>
+      </c>
+      <c r="E43">
+        <v>558.98</v>
+      </c>
+      <c r="F43">
+        <v>358.39699999999999</v>
+      </c>
+      <c r="G43">
+        <v>2060.7809999999999</v>
+      </c>
+      <c r="H43">
+        <v>3940.3409999999999</v>
+      </c>
+      <c r="I43">
+        <v>142.876</v>
+      </c>
+      <c r="J43">
+        <v>1396.6949999999999</v>
+      </c>
+      <c r="K43">
+        <v>37.923000000000002</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>626.53200000000004</v>
+      </c>
+      <c r="O43">
+        <v>2409.3530000000001</v>
+      </c>
+      <c r="P43">
+        <v>1434.6289999999999</v>
+      </c>
+      <c r="Q43">
+        <v>199.626</v>
+      </c>
+      <c r="R43">
+        <v>40629</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1530.9880000000001</v>
+      </c>
+      <c r="U43">
+        <v>927.42200000000003</v>
+      </c>
+      <c r="V43">
+        <v>276.49400000000003</v>
+      </c>
+      <c r="W43">
+        <v>-34.296999999999997</v>
+      </c>
+      <c r="X43">
+        <v>-57.395000000000003</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>17.196000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40720</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>58.051000000000002</v>
+      </c>
+      <c r="D44">
+        <v>908.45399999999995</v>
+      </c>
+      <c r="E44">
+        <v>837.97199999999998</v>
+      </c>
+      <c r="F44">
+        <v>441.12599999999998</v>
+      </c>
+      <c r="G44">
+        <v>2046.105</v>
+      </c>
+      <c r="H44">
+        <v>3940.7449999999999</v>
+      </c>
+      <c r="I44">
+        <v>172.09399999999999</v>
+      </c>
+      <c r="J44">
+        <v>1403.0309999999999</v>
+      </c>
+      <c r="K44">
+        <v>12.43</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>706.52499999999998</v>
+      </c>
+      <c r="O44">
+        <v>2472.1260000000002</v>
+      </c>
+      <c r="P44">
+        <v>1415.461</v>
+      </c>
+      <c r="Q44">
+        <v>-342.64400000000001</v>
+      </c>
+      <c r="R44">
+        <v>40720</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1468.6189999999999</v>
+      </c>
+      <c r="U44">
+        <v>584.77800000000002</v>
+      </c>
+      <c r="V44">
+        <v>-147.63900000000001</v>
+      </c>
+      <c r="W44">
+        <v>-40.813000000000002</v>
+      </c>
+      <c r="X44">
+        <v>-163.60900000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>58.051000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40811</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>170.99</v>
+      </c>
+      <c r="D45">
+        <v>1375.8109999999999</v>
+      </c>
+      <c r="E45">
+        <v>1260.521</v>
+      </c>
+      <c r="F45">
+        <v>659.18600000000004</v>
+      </c>
+      <c r="G45">
+        <v>2210.3049999999998</v>
+      </c>
+      <c r="H45">
+        <v>4084.7260000000001</v>
+      </c>
+      <c r="I45">
+        <v>246.46100000000001</v>
+      </c>
+      <c r="J45">
+        <v>1405.0709999999999</v>
+      </c>
+      <c r="K45">
+        <v>13.167999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>942.44299999999998</v>
+      </c>
+      <c r="O45">
+        <v>2703.4839999999999</v>
+      </c>
+      <c r="P45">
+        <v>1418.239</v>
+      </c>
+      <c r="Q45">
+        <v>-397.81599999999997</v>
+      </c>
+      <c r="R45">
+        <v>40811</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1381.242</v>
+      </c>
+      <c r="U45">
+        <v>186.96199999999999</v>
+      </c>
+      <c r="V45">
+        <v>-127.809</v>
+      </c>
+      <c r="W45">
+        <v>-40.22</v>
+      </c>
+      <c r="X45">
+        <v>-244.44900000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>170.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40902</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>139.13</v>
+      </c>
+      <c r="D46">
+        <v>1329.338</v>
+      </c>
+      <c r="E46">
+        <v>1034.58</v>
+      </c>
+      <c r="F46">
+        <v>615.60199999999998</v>
+      </c>
+      <c r="G46">
+        <v>2253.692</v>
+      </c>
+      <c r="H46">
+        <v>4130.7740000000003</v>
+      </c>
+      <c r="I46">
+        <v>134.864</v>
+      </c>
+      <c r="J46">
+        <v>1400.8720000000001</v>
+      </c>
+      <c r="K46">
+        <v>180.43</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>942.34400000000005</v>
+      </c>
+      <c r="O46">
+        <v>2713.259</v>
+      </c>
+      <c r="P46">
+        <v>1581.3019999999999</v>
+      </c>
+      <c r="Q46">
+        <v>454.726</v>
+      </c>
+      <c r="R46">
+        <v>40902</v>
+      </c>
+      <c r="S46">
+        <v>5900</v>
+      </c>
+      <c r="T46">
+        <v>1417.5150000000001</v>
+      </c>
+      <c r="U46">
+        <v>641.68799999999999</v>
+      </c>
+      <c r="V46">
+        <v>395.02300000000002</v>
+      </c>
+      <c r="W46">
+        <v>-38.698</v>
+      </c>
+      <c r="X46">
+        <v>89.768000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>139.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-2.5790000000000002</v>
+      </c>
+      <c r="D47">
+        <v>648.85</v>
+      </c>
+      <c r="E47">
+        <v>456.58</v>
+      </c>
+      <c r="F47">
+        <v>339.00599999999997</v>
+      </c>
+      <c r="G47">
+        <v>2018.902</v>
+      </c>
+      <c r="H47">
+        <v>3897.1370000000002</v>
+      </c>
+      <c r="I47">
+        <v>129.518</v>
+      </c>
+      <c r="J47">
+        <v>1400.942</v>
+      </c>
+      <c r="K47">
+        <v>171.17699999999999</v>
+      </c>
+      <c r="L47">
+        <v>-10.137</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>725.87699999999995</v>
+      </c>
+      <c r="O47">
+        <v>2499.7440000000001</v>
+      </c>
+      <c r="P47">
+        <v>1572.1189999999999</v>
+      </c>
+      <c r="Q47">
+        <v>242.136</v>
+      </c>
+      <c r="R47">
+        <v>41000</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1397.393</v>
+      </c>
+      <c r="U47">
+        <v>883.82399999999996</v>
+      </c>
+      <c r="V47">
+        <v>284.738</v>
+      </c>
+      <c r="W47">
+        <v>-38.593000000000004</v>
+      </c>
+      <c r="X47">
+        <v>-30.445</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>-2.5790000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>43.427</v>
+      </c>
+      <c r="D48">
+        <v>811.46699999999998</v>
+      </c>
+      <c r="E48">
+        <v>651.41</v>
+      </c>
+      <c r="F48">
+        <v>418.572</v>
+      </c>
+      <c r="G48">
+        <v>2145.826</v>
+      </c>
+      <c r="H48">
+        <v>4014.721</v>
+      </c>
+      <c r="I48">
+        <v>161.785</v>
+      </c>
+      <c r="J48">
+        <v>1399.557</v>
+      </c>
+      <c r="K48">
+        <v>220.60499999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>838.69299999999998</v>
+      </c>
+      <c r="O48">
+        <v>2615.2310000000002</v>
+      </c>
+      <c r="P48">
+        <v>1620.162</v>
+      </c>
+      <c r="Q48">
+        <v>-103.893</v>
+      </c>
+      <c r="R48">
+        <v>41091</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1399.49</v>
+      </c>
+      <c r="U48">
+        <v>779.93100000000004</v>
+      </c>
+      <c r="V48">
+        <v>-83.956999999999994</v>
+      </c>
+      <c r="W48">
+        <v>-46.723999999999997</v>
+      </c>
+      <c r="X48">
+        <v>16.36</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>43.427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>164.852</v>
+      </c>
+      <c r="D49">
+        <v>1345.1369999999999</v>
+      </c>
+      <c r="E49">
+        <v>1195.5170000000001</v>
+      </c>
+      <c r="F49">
+        <v>656.60299999999995</v>
+      </c>
+      <c r="G49">
+        <v>2618.98</v>
+      </c>
+      <c r="H49">
+        <v>4446.2870000000003</v>
+      </c>
+      <c r="I49">
+        <v>237.4</v>
+      </c>
+      <c r="J49">
+        <v>1398.9059999999999</v>
+      </c>
+      <c r="K49">
+        <v>264.745</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1126.6189999999999</v>
+      </c>
+      <c r="O49">
+        <v>2919.3980000000001</v>
+      </c>
+      <c r="P49">
+        <v>1663.6510000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-83.197999999999993</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1526.8889999999999</v>
+      </c>
+      <c r="U49">
+        <v>696.73299999999995</v>
+      </c>
+      <c r="V49">
+        <v>-57.164999999999999</v>
+      </c>
+      <c r="W49">
+        <v>-46.914000000000001</v>
+      </c>
+      <c r="X49">
+        <v>-0.66300000000000003</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>164.852</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>130.29900000000001</v>
+      </c>
+      <c r="D50">
+        <v>1283.529</v>
+      </c>
+      <c r="E50">
+        <v>1029.9590000000001</v>
+      </c>
+      <c r="F50">
+        <v>661.72</v>
+      </c>
+      <c r="G50">
+        <v>2508.2020000000002</v>
+      </c>
+      <c r="H50">
+        <v>4325.3869999999997</v>
+      </c>
+      <c r="I50">
+        <v>139.90600000000001</v>
+      </c>
+      <c r="J50">
+        <v>1396.421</v>
+      </c>
+      <c r="K50">
+        <v>224.36500000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>960.43499999999995</v>
+      </c>
+      <c r="O50">
+        <v>2818.0079999999998</v>
+      </c>
+      <c r="P50">
+        <v>1620.7860000000001</v>
+      </c>
+      <c r="Q50">
+        <v>152.96799999999999</v>
+      </c>
+      <c r="R50">
+        <v>41273</v>
+      </c>
+      <c r="S50">
+        <v>5500</v>
+      </c>
+      <c r="T50">
+        <v>1507.3789999999999</v>
+      </c>
+      <c r="U50">
+        <v>849.70100000000002</v>
+      </c>
+      <c r="V50">
+        <v>391.18</v>
+      </c>
+      <c r="W50">
+        <v>-93.233000000000004</v>
+      </c>
+      <c r="X50">
+        <v>-204.631</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>130.29900000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-6.6710000000000003</v>
+      </c>
+      <c r="D51">
+        <v>663.69399999999996</v>
+      </c>
+      <c r="E51">
+        <v>509.27600000000001</v>
+      </c>
+      <c r="F51">
+        <v>349.5</v>
+      </c>
+      <c r="G51">
+        <v>2250.3960000000002</v>
+      </c>
+      <c r="H51">
+        <v>4060.645</v>
+      </c>
+      <c r="I51">
+        <v>118.416</v>
+      </c>
+      <c r="J51">
+        <v>1394.3869999999999</v>
+      </c>
+      <c r="K51">
+        <v>161.96799999999999</v>
+      </c>
+      <c r="L51">
+        <v>-62.604999999999997</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>741.673</v>
+      </c>
+      <c r="O51">
+        <v>2597.5569999999998</v>
+      </c>
+      <c r="P51">
+        <v>1556.355</v>
+      </c>
+      <c r="Q51">
+        <v>217.33799999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1463.088</v>
+      </c>
+      <c r="U51">
+        <v>1067.039</v>
+      </c>
+      <c r="V51">
+        <v>297.45400000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-59.354999999999997</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>-6.6710000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="D52">
+        <v>766.34199999999998</v>
+      </c>
+      <c r="E52">
+        <v>640.50300000000004</v>
+      </c>
+      <c r="F52">
+        <v>405.23399999999998</v>
+      </c>
+      <c r="G52">
+        <v>2366.2020000000002</v>
+      </c>
+      <c r="H52">
+        <v>4178.299</v>
+      </c>
+      <c r="I52">
+        <v>199.78399999999999</v>
+      </c>
+      <c r="J52">
+        <v>959.89499999999998</v>
+      </c>
+      <c r="K52">
+        <v>192.91800000000001</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1296.722</v>
+      </c>
+      <c r="O52">
+        <v>2722.2730000000001</v>
+      </c>
+      <c r="P52">
+        <v>1585.271</v>
+      </c>
+      <c r="Q52">
+        <v>-44.694000000000003</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1456.0260000000001</v>
+      </c>
+      <c r="U52">
+        <v>1022.345</v>
+      </c>
+      <c r="V52">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="W52">
+        <v>-52.125</v>
+      </c>
+      <c r="X52">
+        <v>-7.7839999999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>36.479999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>126.574</v>
+      </c>
+      <c r="D53">
+        <v>1370.348</v>
+      </c>
+      <c r="E53">
+        <v>1215.289</v>
+      </c>
+      <c r="F53">
+        <v>639.82799999999997</v>
+      </c>
+      <c r="G53">
+        <v>2597.2849999999999</v>
+      </c>
+      <c r="H53">
+        <v>4590.1450000000004</v>
+      </c>
+      <c r="I53">
+        <v>263.08600000000001</v>
+      </c>
+      <c r="J53">
+        <v>959.89499999999998</v>
+      </c>
+      <c r="K53">
+        <v>212.92599999999999</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1648.8789999999999</v>
+      </c>
+      <c r="O53">
+        <v>3019.4459999999999</v>
+      </c>
+      <c r="P53">
+        <v>1603.2449999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-433.67700000000002</v>
+      </c>
+      <c r="R53">
+        <v>41546</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1570.6990000000001</v>
+      </c>
+      <c r="U53">
+        <v>588.66800000000001</v>
+      </c>
+      <c r="V53">
+        <v>-250.81899999999999</v>
+      </c>
+      <c r="W53">
+        <v>-52.039000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-48.06</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>126.574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>129.815</v>
+      </c>
+      <c r="D54">
+        <v>1281.7729999999999</v>
+      </c>
+      <c r="E54">
+        <v>1093.6199999999999</v>
+      </c>
+      <c r="F54">
+        <v>638.23900000000003</v>
+      </c>
+      <c r="G54">
+        <v>2480.4569999999999</v>
+      </c>
+      <c r="H54">
+        <v>4402.2669999999998</v>
+      </c>
+      <c r="I54">
+        <v>198.79900000000001</v>
+      </c>
+      <c r="J54">
+        <v>959.89499999999998</v>
+      </c>
+      <c r="K54">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1363.28</v>
+      </c>
+      <c r="O54">
+        <v>2674.4789999999998</v>
+      </c>
+      <c r="P54">
+        <v>1396.617</v>
+      </c>
+      <c r="Q54">
+        <v>93.781000000000006</v>
+      </c>
+      <c r="R54">
+        <v>41637</v>
+      </c>
+      <c r="S54">
+        <v>5000</v>
+      </c>
+      <c r="T54">
+        <v>1727.788</v>
+      </c>
+      <c r="U54">
+        <v>682.44899999999996</v>
+      </c>
+      <c r="V54">
+        <v>353.815</v>
+      </c>
+      <c r="W54">
+        <v>-51.965000000000003</v>
+      </c>
+      <c r="X54">
+        <v>-225.81</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>129.815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>32.087000000000003</v>
+      </c>
+      <c r="D55">
+        <v>679.45299999999997</v>
+      </c>
+      <c r="E55">
+        <v>552.471</v>
+      </c>
+      <c r="F55">
+        <v>366.66899999999998</v>
+      </c>
+      <c r="G55">
+        <v>2142.105</v>
+      </c>
+      <c r="H55">
+        <v>4029.4369999999999</v>
+      </c>
+      <c r="I55">
+        <v>169.173</v>
+      </c>
+      <c r="J55">
+        <v>959.89499999999998</v>
+      </c>
+      <c r="K55">
+        <v>12.858000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1093.721</v>
+      </c>
+      <c r="O55">
+        <v>2390.835</v>
+      </c>
+      <c r="P55">
+        <v>1420.6489999999999</v>
+      </c>
+      <c r="Q55">
+        <v>109.8</v>
+      </c>
+      <c r="R55">
+        <v>41728</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1638.6020000000001</v>
+      </c>
+      <c r="U55">
+        <v>792.24900000000002</v>
+      </c>
+      <c r="V55">
+        <v>242.041</v>
+      </c>
+      <c r="W55">
+        <v>-52.387999999999998</v>
+      </c>
+      <c r="X55">
+        <v>-103.387</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>32.087000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>33.475000000000001</v>
+      </c>
+      <c r="D56">
+        <v>829.26199999999994</v>
+      </c>
+      <c r="E56">
+        <v>738.899</v>
+      </c>
+      <c r="F56">
+        <v>431.68299999999999</v>
+      </c>
+      <c r="G56">
+        <v>2204.2049999999999</v>
+      </c>
+      <c r="H56">
+        <v>4138.5950000000003</v>
+      </c>
+      <c r="I56">
+        <v>207.52600000000001</v>
+      </c>
+      <c r="J56">
+        <v>1559.895</v>
+      </c>
+      <c r="K56">
+        <v>9.1880000000000006</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>724.69200000000001</v>
+      </c>
+      <c r="O56">
+        <v>2642.3530000000001</v>
+      </c>
+      <c r="P56">
+        <v>1569.0830000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-206.09800000000001</v>
+      </c>
+      <c r="R56">
+        <v>41819</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1496.242</v>
+      </c>
+      <c r="U56">
+        <v>586.15099999999995</v>
+      </c>
+      <c r="V56">
+        <v>-132.77099999999999</v>
+      </c>
+      <c r="W56">
+        <v>-55.709000000000003</v>
+      </c>
+      <c r="X56">
+        <v>-50.76</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>33.475000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>180.45699999999999</v>
+      </c>
+      <c r="D57">
+        <v>1469.8989999999999</v>
+      </c>
+      <c r="E57">
+        <v>1314.0219999999999</v>
+      </c>
+      <c r="F57">
+        <v>748.40700000000004</v>
+      </c>
+      <c r="G57">
+        <v>2646.1889999999999</v>
+      </c>
+      <c r="H57">
+        <v>4508.8019999999997</v>
+      </c>
+      <c r="I57">
+        <v>284.02300000000002</v>
+      </c>
+      <c r="J57">
+        <v>1559.895</v>
+      </c>
+      <c r="K57">
+        <v>78.022999999999996</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1014.028</v>
+      </c>
+      <c r="O57">
+        <v>2966.2890000000002</v>
+      </c>
+      <c r="P57">
+        <v>1637.9179999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-133.96700000000001</v>
+      </c>
+      <c r="R57">
+        <v>41910</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1542.5129999999999</v>
+      </c>
+      <c r="U57">
+        <v>452.18400000000003</v>
+      </c>
+      <c r="V57">
+        <v>-82.444000000000003</v>
+      </c>
+      <c r="W57">
+        <v>-54.692</v>
+      </c>
+      <c r="X57">
+        <v>-88.713999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AA57">
+        <v>180.45699999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>169.911</v>
+      </c>
+      <c r="D58">
+        <v>1298.5930000000001</v>
+      </c>
+      <c r="E58">
+        <v>1094.673</v>
+      </c>
+      <c r="F58">
+        <v>679.673</v>
+      </c>
+      <c r="G58">
+        <v>2643.5050000000001</v>
+      </c>
+      <c r="H58">
+        <v>4518.1000000000004</v>
+      </c>
+      <c r="I58">
+        <v>212.54900000000001</v>
+      </c>
+      <c r="J58">
+        <v>1545.8530000000001</v>
+      </c>
+      <c r="K58">
+        <v>252.48099999999999</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1071.684</v>
+      </c>
+      <c r="O58">
+        <v>3009.7060000000001</v>
+      </c>
+      <c r="P58">
+        <v>1798.3340000000001</v>
+      </c>
+      <c r="Q58">
+        <v>440.983</v>
+      </c>
+      <c r="R58">
+        <v>42001</v>
+      </c>
+      <c r="S58">
+        <v>5200</v>
+      </c>
+      <c r="T58">
+        <v>1508.394</v>
+      </c>
+      <c r="U58">
+        <v>893.16700000000003</v>
+      </c>
+      <c r="V58">
+        <v>427.58499999999998</v>
+      </c>
+      <c r="W58">
+        <v>-54.066000000000003</v>
+      </c>
+      <c r="X58">
+        <v>11.904999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>169.911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>26.667000000000002</v>
+      </c>
+      <c r="D59">
+        <v>713.5</v>
+      </c>
+      <c r="E59">
+        <v>563.30100000000004</v>
+      </c>
+      <c r="F59">
+        <v>395.58</v>
+      </c>
+      <c r="G59">
+        <v>2405.308</v>
+      </c>
+      <c r="H59">
+        <v>4260.8419999999996</v>
+      </c>
+      <c r="I59">
+        <v>142.946</v>
+      </c>
+      <c r="J59">
+        <v>1559.895</v>
+      </c>
+      <c r="K59">
+        <v>231.91399999999999</v>
+      </c>
+      <c r="L59">
+        <v>-20.324999999999999</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>820.72699999999998</v>
+      </c>
+      <c r="O59">
+        <v>2773.1010000000001</v>
+      </c>
+      <c r="P59">
+        <v>1791.809</v>
+      </c>
+      <c r="Q59">
+        <v>188.23</v>
+      </c>
+      <c r="R59">
+        <v>42092</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1487.741</v>
+      </c>
+      <c r="U59">
+        <v>1081.3969999999999</v>
+      </c>
+      <c r="V59">
+        <v>315.28100000000001</v>
+      </c>
+      <c r="W59">
+        <v>-53.47</v>
+      </c>
+      <c r="X59">
+        <v>-82.489000000000004</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>26.667000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>41.808999999999997</v>
+      </c>
+      <c r="D60">
+        <v>797.65800000000002</v>
+      </c>
+      <c r="E60">
+        <v>709.43700000000001</v>
+      </c>
+      <c r="F60">
+        <v>437.97</v>
+      </c>
+      <c r="G60">
+        <v>2405.8290000000002</v>
+      </c>
+      <c r="H60">
+        <v>4231.107</v>
+      </c>
+      <c r="I60">
+        <v>185.631</v>
+      </c>
+      <c r="J60">
+        <v>1559.895</v>
+      </c>
+      <c r="K60">
+        <v>167.87700000000001</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>805.90300000000002</v>
+      </c>
+      <c r="O60">
+        <v>2761.2150000000001</v>
+      </c>
+      <c r="P60">
+        <v>1727.7719999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-222.93899999999999</v>
+      </c>
+      <c r="R60">
+        <v>42183</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1469.8920000000001</v>
+      </c>
+      <c r="U60">
+        <v>858.45799999999997</v>
+      </c>
+      <c r="V60">
+        <v>-79.177000000000007</v>
+      </c>
+      <c r="W60">
+        <v>-57.432000000000002</v>
+      </c>
+      <c r="X60">
+        <v>-119.82599999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-3</v>
+      </c>
+      <c r="AA60">
+        <v>41.808999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>207.59899999999999</v>
+      </c>
+      <c r="D61">
+        <v>1470.9970000000001</v>
+      </c>
+      <c r="E61">
+        <v>1390.2739999999999</v>
+      </c>
+      <c r="F61">
+        <v>766.40200000000004</v>
+      </c>
+      <c r="G61">
+        <v>2778.116</v>
+      </c>
+      <c r="H61">
+        <v>4580.2460000000001</v>
+      </c>
+      <c r="I61">
+        <v>282.77199999999999</v>
+      </c>
+      <c r="J61">
+        <v>1559.895</v>
+      </c>
+      <c r="K61">
+        <v>113.97</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1050.4960000000001</v>
+      </c>
+      <c r="O61">
+        <v>2996.2359999999999</v>
+      </c>
+      <c r="P61">
+        <v>1673.865</v>
+      </c>
+      <c r="Q61">
+        <v>-307.166</v>
+      </c>
+      <c r="R61">
+        <v>42274</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1584.01</v>
+      </c>
+      <c r="U61">
+        <v>551.29200000000003</v>
+      </c>
+      <c r="V61">
+        <v>-166.54599999999999</v>
+      </c>
+      <c r="W61">
+        <v>-57.491</v>
+      </c>
+      <c r="X61">
+        <v>-133.62799999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>207.59899999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42365</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>175.76300000000001</v>
+      </c>
+      <c r="D62">
+        <v>1465.354</v>
+      </c>
+      <c r="E62">
+        <v>1217.8499999999999</v>
+      </c>
+      <c r="F62">
+        <v>748.83</v>
+      </c>
+      <c r="G62">
+        <v>2865.598</v>
+      </c>
+      <c r="H62">
+        <v>4720.7169999999996</v>
+      </c>
+      <c r="I62">
+        <v>241.21</v>
+      </c>
+      <c r="J62">
+        <v>1547.115</v>
+      </c>
+      <c r="K62">
+        <v>164.56299999999999</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1064.6469999999999</v>
+      </c>
+      <c r="O62">
+        <v>3016.645</v>
+      </c>
+      <c r="P62">
+        <v>1711.6780000000001</v>
+      </c>
+      <c r="Q62">
+        <v>425.45800000000003</v>
+      </c>
+      <c r="R62">
+        <v>42365</v>
+      </c>
+      <c r="S62">
+        <v>5000</v>
+      </c>
+      <c r="T62">
+        <v>1704.0719999999999</v>
+      </c>
+      <c r="U62">
+        <v>976.75</v>
+      </c>
+      <c r="V62">
+        <v>482.887</v>
+      </c>
+      <c r="W62">
+        <v>-57.404000000000003</v>
+      </c>
+      <c r="X62">
+        <v>-10.513999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>3</v>
+      </c>
+      <c r="AA62">
+        <v>175.76300000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42456</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>48.750999999999998</v>
+      </c>
+      <c r="D63">
+        <v>831.18</v>
+      </c>
+      <c r="E63">
+        <v>670.66300000000001</v>
+      </c>
+      <c r="F63">
+        <v>464.78500000000003</v>
+      </c>
+      <c r="G63">
+        <v>2524.0830000000001</v>
+      </c>
+      <c r="H63">
+        <v>4364.6949999999997</v>
+      </c>
+      <c r="I63">
+        <v>176.66499999999999</v>
+      </c>
+      <c r="J63">
+        <v>1547.434</v>
+      </c>
+      <c r="K63">
+        <v>89</v>
+      </c>
+      <c r="L63">
+        <v>-75.525999999999996</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>768.37300000000005</v>
+      </c>
+      <c r="O63">
+        <v>2718.1529999999998</v>
+      </c>
+      <c r="P63">
+        <v>1636.434</v>
+      </c>
+      <c r="Q63">
+        <v>119.13</v>
+      </c>
+      <c r="R63">
+        <v>42456</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1646.5419999999999</v>
+      </c>
+      <c r="U63">
+        <v>1095.8800000000001</v>
+      </c>
+      <c r="V63">
+        <v>313.279</v>
+      </c>
+      <c r="W63">
+        <v>-57.405999999999999</v>
+      </c>
+      <c r="X63">
+        <v>-171.327</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>48.750999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42547</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>52.106000000000002</v>
+      </c>
+      <c r="D64">
+        <v>878.94500000000005</v>
+      </c>
+      <c r="E64">
+        <v>703.82100000000003</v>
+      </c>
+      <c r="F64">
+        <v>482.82799999999997</v>
+      </c>
+      <c r="G64">
+        <v>2523.3560000000002</v>
+      </c>
+      <c r="H64">
+        <v>4344.3850000000002</v>
+      </c>
+      <c r="I64">
+        <v>214.24299999999999</v>
+      </c>
+      <c r="J64">
+        <v>1547.7529999999999</v>
+      </c>
+      <c r="K64">
+        <v>5.4</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>745.02</v>
+      </c>
+      <c r="O64">
+        <v>2695.3870000000002</v>
+      </c>
+      <c r="P64">
+        <v>1553.153</v>
+      </c>
+      <c r="Q64">
+        <v>-171.78200000000001</v>
+      </c>
+      <c r="R64">
+        <v>42547</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1648.998</v>
+      </c>
+      <c r="U64">
+        <v>924.09799999999996</v>
+      </c>
+      <c r="V64">
+        <v>-7.343</v>
+      </c>
+      <c r="W64">
+        <v>-63.905000000000001</v>
+      </c>
+      <c r="X64">
+        <v>-147.97900000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>19.8</v>
+      </c>
+      <c r="AA64">
+        <v>52.106000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42638</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>257.798</v>
+      </c>
+      <c r="D65">
+        <v>1679.7570000000001</v>
+      </c>
+      <c r="E65">
+        <v>1452.931</v>
+      </c>
+      <c r="F65">
+        <v>880.19500000000005</v>
+      </c>
+      <c r="G65">
+        <v>3146.9870000000001</v>
+      </c>
+      <c r="H65">
+        <v>4955.1469999999999</v>
+      </c>
+      <c r="I65">
+        <v>344.87400000000002</v>
+      </c>
+      <c r="J65">
+        <v>1198.461</v>
+      </c>
+      <c r="K65">
+        <v>178.666</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1615.7190000000001</v>
+      </c>
+      <c r="O65">
+        <v>3178.558</v>
+      </c>
+      <c r="P65">
+        <v>1726.7380000000001</v>
+      </c>
+      <c r="Q65">
+        <v>-93.725999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42638</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1776.5889999999999</v>
+      </c>
+      <c r="U65">
+        <v>830.37199999999996</v>
+      </c>
+      <c r="V65">
+        <v>-110.529</v>
+      </c>
+      <c r="W65">
+        <v>-63.954000000000001</v>
+      </c>
+      <c r="X65">
+        <v>60.290999999999997</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-19.8</v>
+      </c>
+      <c r="AA65">
+        <v>257.798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42729</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>192.72499999999999</v>
+      </c>
+      <c r="D66">
+        <v>1629.94</v>
+      </c>
+      <c r="E66">
+        <v>1319.963</v>
+      </c>
+      <c r="F66">
+        <v>841.08699999999999</v>
+      </c>
+      <c r="G66">
+        <v>3227.607</v>
+      </c>
+      <c r="H66">
+        <v>5091.366</v>
+      </c>
+      <c r="I66">
+        <v>319.52499999999998</v>
+      </c>
+      <c r="J66">
+        <v>1198.6790000000001</v>
+      </c>
+      <c r="K66">
+        <v>172.58199999999999</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1617.8589999999999</v>
+      </c>
+      <c r="O66">
+        <v>3205.9259999999999</v>
+      </c>
+      <c r="P66">
+        <v>1720.9739999999999</v>
+      </c>
+      <c r="Q66">
+        <v>451.91300000000001</v>
+      </c>
+      <c r="R66">
+        <v>42729</v>
+      </c>
+      <c r="S66">
+        <v>5400</v>
+      </c>
+      <c r="T66">
+        <v>1885.44</v>
+      </c>
+      <c r="U66">
+        <v>1282.2850000000001</v>
+      </c>
+      <c r="V66">
+        <v>621.90599999999995</v>
+      </c>
+      <c r="W66">
+        <v>-63.616</v>
+      </c>
+      <c r="X66">
+        <v>-116.483</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>192.72499999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42827</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>68.599000000000004</v>
+      </c>
+      <c r="D67">
+        <v>849.66300000000001</v>
+      </c>
+      <c r="E67">
+        <v>676.94500000000005</v>
+      </c>
+      <c r="F67">
+        <v>473.63099999999997</v>
+      </c>
+      <c r="G67">
+        <v>2799.7330000000002</v>
+      </c>
+      <c r="H67">
+        <v>4645.87</v>
+      </c>
+      <c r="I67">
+        <v>241.214</v>
+      </c>
+      <c r="J67">
+        <v>1198.896</v>
+      </c>
+      <c r="K67">
+        <v>65.293999999999997</v>
+      </c>
+      <c r="L67">
+        <v>-107.336</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1201.8140000000001</v>
+      </c>
+      <c r="O67">
+        <v>2794.2260000000001</v>
+      </c>
+      <c r="P67">
+        <v>1614.0039999999999</v>
+      </c>
+      <c r="Q67">
+        <v>180.79599999999999</v>
+      </c>
+      <c r="R67">
+        <v>42827</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1851.644</v>
+      </c>
+      <c r="U67">
+        <v>1463.0809999999999</v>
+      </c>
+      <c r="V67">
+        <v>411.928</v>
+      </c>
+      <c r="W67">
+        <v>-63.404000000000003</v>
+      </c>
+      <c r="X67">
+        <v>-211.7</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>68.599000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42918</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>67.722999999999999</v>
+      </c>
+      <c r="D68">
+        <v>972.50599999999997</v>
+      </c>
+      <c r="E68">
+        <v>846.54700000000003</v>
+      </c>
+      <c r="F68">
+        <v>519.93299999999999</v>
+      </c>
+      <c r="G68">
+        <v>3094.8049999999998</v>
+      </c>
+      <c r="H68">
+        <v>4912.7430000000004</v>
+      </c>
+      <c r="I68">
+        <v>368.31200000000001</v>
+      </c>
+      <c r="J68">
+        <v>1199.114</v>
+      </c>
+      <c r="K68">
+        <v>186.863</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1472.2470000000001</v>
+      </c>
+      <c r="O68">
+        <v>3080.2489999999998</v>
+      </c>
+      <c r="P68">
+        <v>1735.893</v>
+      </c>
+      <c r="Q68">
+        <v>-29.581</v>
+      </c>
+      <c r="R68">
+        <v>42918</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1832.4939999999999</v>
+      </c>
+      <c r="U68">
+        <v>1433.5</v>
+      </c>
+      <c r="V68">
+        <v>-45.822000000000003</v>
+      </c>
+      <c r="W68">
+        <v>-71.251000000000005</v>
+      </c>
+      <c r="X68">
+        <v>51.244</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>67.722999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>265.58300000000003</v>
+      </c>
+      <c r="D69">
+        <v>1791.502</v>
+      </c>
+      <c r="E69">
+        <v>1655.752</v>
+      </c>
+      <c r="F69">
+        <v>916.23</v>
+      </c>
+      <c r="G69">
+        <v>3762.24</v>
+      </c>
+      <c r="H69">
+        <v>5544.6480000000001</v>
+      </c>
+      <c r="I69">
+        <v>525.85199999999998</v>
+      </c>
+      <c r="J69">
+        <v>1693.261</v>
+      </c>
+      <c r="K69">
+        <v>189.012</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1484.7570000000001</v>
+      </c>
+      <c r="O69">
+        <v>3588.3960000000002</v>
+      </c>
+      <c r="P69">
+        <v>1882.2729999999999</v>
+      </c>
+      <c r="Q69">
+        <v>-188.72200000000001</v>
+      </c>
+      <c r="R69">
+        <v>43009</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1956.252</v>
+      </c>
+      <c r="U69">
+        <v>1244.778</v>
+      </c>
+      <c r="V69">
+        <v>-164.31</v>
+      </c>
+      <c r="W69">
+        <v>-71.356999999999999</v>
+      </c>
+      <c r="X69">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>265.58300000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-5.298</v>
+      </c>
+      <c r="D70">
+        <v>1596.1110000000001</v>
+      </c>
+      <c r="E70">
+        <v>1405.3989999999999</v>
+      </c>
+      <c r="F70">
+        <v>825.00900000000001</v>
+      </c>
+      <c r="G70">
+        <v>3633.9259999999999</v>
+      </c>
+      <c r="H70">
+        <v>5289.9830000000002</v>
+      </c>
+      <c r="I70">
+        <v>348.476</v>
+      </c>
+      <c r="J70">
+        <v>1693.6089999999999</v>
+      </c>
+      <c r="K70">
+        <v>154.95699999999999</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1251.6969999999999</v>
+      </c>
+      <c r="O70">
+        <v>3460.0259999999998</v>
+      </c>
+      <c r="P70">
+        <v>1848.566</v>
+      </c>
+      <c r="Q70">
+        <v>336.45600000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>5400</v>
+      </c>
+      <c r="T70">
+        <v>1829.9570000000001</v>
+      </c>
+      <c r="U70">
+        <v>1581.2339999999999</v>
+      </c>
+      <c r="V70">
+        <v>522.58199999999999</v>
+      </c>
+      <c r="W70">
+        <v>-70.960999999999999</v>
+      </c>
+      <c r="X70">
+        <v>-150.91999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-5.298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-112.492</v>
+      </c>
+      <c r="D71">
+        <v>716.34100000000001</v>
+      </c>
+      <c r="E71">
+        <v>612.69799999999998</v>
+      </c>
+      <c r="F71">
+        <v>379.46800000000002</v>
+      </c>
+      <c r="G71">
+        <v>3021.837</v>
+      </c>
+      <c r="H71">
+        <v>4729.0720000000001</v>
+      </c>
+      <c r="I71">
+        <v>256.43299999999999</v>
+      </c>
+      <c r="J71">
+        <v>1693.9770000000001</v>
+      </c>
+      <c r="K71">
+        <v>21.611000000000001</v>
+      </c>
+      <c r="L71">
+        <v>-133.69800000000001</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>852.52599999999995</v>
+      </c>
+      <c r="O71">
+        <v>3157.7130000000002</v>
+      </c>
+      <c r="P71">
+        <v>1715.588</v>
+      </c>
+      <c r="Q71">
+        <v>17.71</v>
+      </c>
+      <c r="R71">
+        <v>43191</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1571.3589999999999</v>
+      </c>
+      <c r="U71">
+        <v>1598.944</v>
+      </c>
+      <c r="V71">
+        <v>317.73899999999998</v>
+      </c>
+      <c r="W71">
+        <v>-70.781000000000006</v>
+      </c>
+      <c r="X71">
+        <v>-275.72399999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>-112.492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>60.298999999999999</v>
+      </c>
+      <c r="D72">
+        <v>904.45799999999997</v>
+      </c>
+      <c r="E72">
+        <v>739.26800000000003</v>
+      </c>
+      <c r="F72">
+        <v>492.81</v>
+      </c>
+      <c r="G72">
+        <v>2827.6329999999998</v>
+      </c>
+      <c r="H72">
+        <v>5113.8559999999998</v>
+      </c>
+      <c r="I72">
+        <v>339.86099999999999</v>
+      </c>
+      <c r="J72">
+        <v>1694.35</v>
+      </c>
+      <c r="K72">
+        <v>20.120999999999999</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1052.444</v>
+      </c>
+      <c r="O72">
+        <v>3347.1060000000002</v>
+      </c>
+      <c r="P72">
+        <v>1714.471</v>
+      </c>
+      <c r="Q72">
+        <v>-439.87200000000001</v>
+      </c>
+      <c r="R72">
+        <v>43282</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1766.75</v>
+      </c>
+      <c r="U72">
+        <v>1159.0719999999999</v>
+      </c>
+      <c r="V72">
+        <v>-76.938000000000002</v>
+      </c>
+      <c r="W72">
+        <v>-78.747</v>
+      </c>
+      <c r="X72">
+        <v>-145.501</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>60.298999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>263.86099999999999</v>
+      </c>
+      <c r="D73">
+        <v>1569.6859999999999</v>
+      </c>
+      <c r="E73">
+        <v>1391.242</v>
+      </c>
+      <c r="F73">
+        <v>794.73599999999999</v>
+      </c>
+      <c r="G73">
+        <v>3192.45</v>
+      </c>
+      <c r="H73">
+        <v>5495.3289999999997</v>
+      </c>
+      <c r="I73">
+        <v>458.80799999999999</v>
+      </c>
+      <c r="J73">
+        <v>1694.721</v>
+      </c>
+      <c r="K73">
+        <v>20.306999999999999</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1321.923</v>
+      </c>
+      <c r="O73">
+        <v>3608.0479999999998</v>
+      </c>
+      <c r="P73">
+        <v>1715.028</v>
+      </c>
+      <c r="Q73">
+        <v>-251.965</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1887.2809999999999</v>
+      </c>
+      <c r="U73">
+        <v>907.10699999999997</v>
+      </c>
+      <c r="V73">
+        <v>-66.055000000000007</v>
+      </c>
+      <c r="W73">
+        <v>-80.034000000000006</v>
+      </c>
+      <c r="X73">
+        <v>-157.32499999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>263.86099999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43464</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>8.766</v>
+      </c>
+      <c r="D74">
+        <v>1389.1610000000001</v>
+      </c>
+      <c r="E74">
+        <v>1200.9469999999999</v>
+      </c>
+      <c r="F74">
+        <v>669.58799999999997</v>
+      </c>
+      <c r="G74">
+        <v>3082.5039999999999</v>
+      </c>
+      <c r="H74">
+        <v>5262.9880000000003</v>
+      </c>
+      <c r="I74">
+        <v>333.52100000000002</v>
+      </c>
+      <c r="J74">
+        <v>1695.0920000000001</v>
+      </c>
+      <c r="K74">
+        <v>9.74</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1274.3240000000001</v>
+      </c>
+      <c r="O74">
+        <v>3508.502</v>
+      </c>
+      <c r="P74">
+        <v>1704.8320000000001</v>
+      </c>
+      <c r="Q74">
+        <v>275.26400000000001</v>
+      </c>
+      <c r="R74">
+        <v>43464</v>
+      </c>
+      <c r="S74">
+        <v>5800</v>
+      </c>
+      <c r="T74">
+        <v>1754.4860000000001</v>
+      </c>
+      <c r="U74">
+        <v>1182.3710000000001</v>
+      </c>
+      <c r="V74">
+        <v>471.25099999999998</v>
+      </c>
+      <c r="W74">
+        <v>-79.695999999999998</v>
+      </c>
+      <c r="X74">
+        <v>-158.55099999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>8.766</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>26.727</v>
+      </c>
+      <c r="D75">
+        <v>732.51</v>
+      </c>
+      <c r="E75">
+        <v>638.41700000000003</v>
+      </c>
+      <c r="F75">
+        <v>406.06</v>
+      </c>
+      <c r="G75">
+        <v>2631.8580000000002</v>
+      </c>
+      <c r="H75">
+        <v>4934.7730000000001</v>
+      </c>
+      <c r="I75">
+        <v>234.262</v>
+      </c>
+      <c r="J75">
+        <v>1695.462</v>
+      </c>
+      <c r="K75">
+        <v>13.409000000000001</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>948.72500000000002</v>
+      </c>
+      <c r="O75">
+        <v>3280.2420000000002</v>
+      </c>
+      <c r="P75">
+        <v>1867.748</v>
+      </c>
+      <c r="Q75">
+        <v>14.263</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1654.5309999999999</v>
+      </c>
+      <c r="U75">
+        <v>1196.634</v>
+      </c>
+      <c r="V75">
+        <v>264.49400000000003</v>
+      </c>
+      <c r="W75">
+        <v>-79.274000000000001</v>
+      </c>
+      <c r="X75">
+        <v>-220.37899999999999</v>
+      </c>
+      <c r="Y75">
+        <v>129.34299999999999</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>26.727</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>13.433</v>
+      </c>
+      <c r="D76">
+        <v>984.53700000000003</v>
+      </c>
+      <c r="E76">
+        <v>837.48699999999997</v>
+      </c>
+      <c r="F76">
+        <v>546.28</v>
+      </c>
+      <c r="G76">
+        <v>2830.0949999999998</v>
+      </c>
+      <c r="H76">
+        <v>5038.6099999999997</v>
+      </c>
+      <c r="I76">
+        <v>330.053</v>
+      </c>
+      <c r="J76">
+        <v>1695.8330000000001</v>
+      </c>
+      <c r="K76">
+        <v>12.787000000000001</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1072.6959999999999</v>
+      </c>
+      <c r="O76">
+        <v>3322.741</v>
+      </c>
+      <c r="P76">
+        <v>1861.106</v>
+      </c>
+      <c r="Q76">
+        <v>-45.591999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1715.8689999999999</v>
+      </c>
+      <c r="U76">
+        <v>1151.0419999999999</v>
+      </c>
+      <c r="V76">
+        <v>71.781999999999996</v>
+      </c>
+      <c r="W76">
+        <v>-85.634</v>
+      </c>
+      <c r="X76">
+        <v>-86.177000000000007</v>
+      </c>
+      <c r="Y76">
+        <v>123.188</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>13.433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>212.94900000000001</v>
+      </c>
+      <c r="D77">
+        <v>1575.173</v>
+      </c>
+      <c r="E77">
+        <v>1450.912</v>
+      </c>
+      <c r="F77">
+        <v>792.01800000000003</v>
+      </c>
+      <c r="G77">
+        <v>3413.13</v>
+      </c>
+      <c r="H77">
+        <v>5554.6239999999998</v>
+      </c>
+      <c r="I77">
+        <v>501.13600000000002</v>
+      </c>
+      <c r="J77">
+        <v>1696.204</v>
+      </c>
+      <c r="K77">
+        <v>7.9029999999999996</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1466.7349999999999</v>
+      </c>
+      <c r="O77">
+        <v>3713.7170000000001</v>
+      </c>
+      <c r="P77">
+        <v>1848.5619999999999</v>
+      </c>
+      <c r="Q77">
+        <v>-90.61</v>
+      </c>
+      <c r="R77">
+        <v>43737</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1840.9069999999999</v>
+      </c>
+      <c r="U77">
+        <v>1060.432</v>
+      </c>
+      <c r="V77">
+        <v>53.292000000000002</v>
+      </c>
+      <c r="W77">
+        <v>-85.852000000000004</v>
+      </c>
+      <c r="X77">
+        <v>-110.624</v>
+      </c>
+      <c r="Y77">
+        <v>114.96599999999999</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>212.94900000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>267.34500000000003</v>
+      </c>
+      <c r="D78">
+        <v>1428.0070000000001</v>
+      </c>
+      <c r="E78">
+        <v>1442.779</v>
+      </c>
+      <c r="F78">
+        <v>667.88599999999997</v>
+      </c>
+      <c r="G78">
+        <v>6747.5209999999997</v>
+      </c>
+      <c r="H78">
+        <v>8855.6280000000006</v>
+      </c>
+      <c r="I78">
+        <v>343.92700000000002</v>
+      </c>
+      <c r="J78">
+        <v>4046.4569999999999</v>
+      </c>
+      <c r="K78">
+        <v>0.503</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1257.0820000000001</v>
+      </c>
+      <c r="O78">
+        <v>5860.098</v>
+      </c>
+      <c r="P78">
+        <v>4046.96</v>
+      </c>
+      <c r="Q78">
+        <v>3519.9369999999999</v>
+      </c>
+      <c r="R78">
+        <v>43828</v>
+      </c>
+      <c r="S78">
+        <v>5600</v>
+      </c>
+      <c r="T78">
+        <v>2995.53</v>
+      </c>
+      <c r="U78">
+        <v>4580.3689999999997</v>
+      </c>
+      <c r="V78">
+        <v>263.49299999999999</v>
+      </c>
+      <c r="W78">
+        <v>-85.843999999999994</v>
+      </c>
+      <c r="X78">
+        <v>3227.7530000000002</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>267.34500000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-69.637</v>
+      </c>
+      <c r="D79">
+        <v>1105.57</v>
+      </c>
+      <c r="E79">
+        <v>1234.943</v>
+      </c>
+      <c r="F79">
+        <v>597.90800000000002</v>
+      </c>
+      <c r="G79">
+        <v>3318.5030000000002</v>
+      </c>
+      <c r="H79">
+        <v>10424.359</v>
+      </c>
+      <c r="I79">
+        <v>308.49599999999998</v>
+      </c>
+      <c r="J79">
+        <v>5156.29</v>
+      </c>
+      <c r="K79">
+        <v>9.4049999999999994</v>
+      </c>
+      <c r="L79">
+        <v>-1.4239999999999999</v>
+      </c>
+      <c r="M79">
+        <v>-50.186</v>
+      </c>
+      <c r="N79">
+        <v>1738.556</v>
+      </c>
+      <c r="O79">
+        <v>7633.8109999999997</v>
+      </c>
+      <c r="P79">
+        <v>5425.9319999999998</v>
+      </c>
+      <c r="Q79">
+        <v>-3342.4850000000001</v>
+      </c>
+      <c r="R79">
+        <v>43919</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2790.5479999999998</v>
+      </c>
+      <c r="U79">
+        <v>1151.7070000000001</v>
+      </c>
+      <c r="V79">
+        <v>291.62700000000001</v>
+      </c>
+      <c r="W79">
+        <v>-93.162000000000006</v>
+      </c>
+      <c r="X79">
+        <v>819.46900000000005</v>
+      </c>
+      <c r="Y79">
+        <v>152.53299999999999</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>-69.637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-33.914999999999999</v>
+      </c>
+      <c r="D80">
+        <v>860.279</v>
+      </c>
+      <c r="E80">
+        <v>1164.19</v>
+      </c>
+      <c r="F80">
+        <v>459.02199999999999</v>
+      </c>
+      <c r="G80">
+        <v>3185.6669999999999</v>
+      </c>
+      <c r="H80">
+        <v>10222.049999999999</v>
+      </c>
+      <c r="I80">
+        <v>335.23599999999999</v>
+      </c>
+      <c r="J80">
+        <v>4802.509</v>
+      </c>
+      <c r="K80">
+        <v>6.4189999999999996</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1981.5650000000001</v>
+      </c>
+      <c r="O80">
+        <v>7555.7659999999996</v>
+      </c>
+      <c r="P80">
+        <v>5399.4170000000004</v>
+      </c>
+      <c r="Q80">
+        <v>-199.86799999999999</v>
+      </c>
+      <c r="R80">
+        <v>44010</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2666.2840000000001</v>
+      </c>
+      <c r="U80">
+        <v>966.11599999999999</v>
+      </c>
+      <c r="V80">
+        <v>-33.287999999999997</v>
+      </c>
+      <c r="W80">
+        <v>-93.081000000000003</v>
+      </c>
+      <c r="X80">
+        <v>-141.005</v>
+      </c>
+      <c r="Y80">
+        <v>169.56</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-33.914999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>220.898</v>
+      </c>
+      <c r="D81">
+        <v>1776.623</v>
+      </c>
+      <c r="E81">
+        <v>1710.146</v>
+      </c>
+      <c r="F81">
+        <v>904.15599999999995</v>
+      </c>
+      <c r="G81">
+        <v>3758.962</v>
+      </c>
+      <c r="H81">
+        <v>10703.177</v>
+      </c>
+      <c r="I81">
+        <v>466.17200000000003</v>
+      </c>
+      <c r="J81">
+        <v>4777.8069999999998</v>
+      </c>
+      <c r="K81">
+        <v>10.032</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2315.549</v>
+      </c>
+      <c r="O81">
+        <v>7871.87</v>
+      </c>
+      <c r="P81">
+        <v>5362.7139999999999</v>
+      </c>
+      <c r="Q81">
+        <v>94.388999999999996</v>
+      </c>
+      <c r="R81">
+        <v>44101</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2831.3069999999998</v>
+      </c>
+      <c r="U81">
+        <v>1061.2049999999999</v>
+      </c>
+      <c r="V81">
+        <v>235.971</v>
+      </c>
+      <c r="W81">
+        <v>-93.18</v>
+      </c>
+      <c r="X81">
+        <v>-127.946</v>
+      </c>
+      <c r="Y81">
+        <v>162.792</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>220.898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>105.173</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1722.971</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1676.144</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>828.43200000000002</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3846.645</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>10818.385</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>425.5</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4660.0150000000003</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>6.6420000000000003</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2403.3409999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>7857.2219999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5307.0519999999997</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>317.27100000000002</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44192</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>6822</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2961.163</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1376.4760000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>482.03</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-93.228999999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-144.56899999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>162.82599999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-4412.9480000000003</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>105.173</v>
       </c>
     </row>
